--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>TER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>704400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>654700</v>
+      </c>
+      <c r="F8" s="3">
         <v>582000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>564200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>494100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>519600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>566800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>526900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>487500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>479400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>503400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>696900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>456900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>380000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>298800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>271400</v>
+      </c>
+      <c r="F9" s="3">
         <v>237000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>240300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>206500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>210000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>233200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>219600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>217600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>208500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>208500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>306300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>191900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>161000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>405600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>383300</v>
+      </c>
+      <c r="F10" s="3">
         <v>345000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>323900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>287600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>309600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>333600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>307300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>269900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>270900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>294900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>390600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>265000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>219000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>86800</v>
+      </c>
+      <c r="F12" s="3">
         <v>77800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>81400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>76800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>74700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>77000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>75300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>74400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>72100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>77000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>82300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>76000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>70100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -968,96 +1001,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-4400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-10400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>5100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>11400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-4400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>5600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F15" s="3">
         <v>9600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>10100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>10600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>10600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>11100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>9800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>7700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>7400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>7000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>8200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>7900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>497600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>483000</v>
+      </c>
+      <c r="F17" s="3">
         <v>427100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>430200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>401000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>407300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>423300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>406500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>389900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>384800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>374200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>489100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>363100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>320800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>171700</v>
+      </c>
+      <c r="F18" s="3">
         <v>154900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>134000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>93100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>112300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>143500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>120400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>97600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>94600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>129200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>207800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>93800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>59200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1177,228 +1242,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2500</v>
+        <v>-4100</v>
       </c>
       <c r="E20" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>234500</v>
+      </c>
+      <c r="E21" s="3">
         <v>186900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>186700</v>
+      </c>
+      <c r="G21" s="3">
         <v>166200</v>
       </c>
-      <c r="F21" s="3">
-        <v>129200</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>134700</v>
+      </c>
+      <c r="I21" s="3">
         <v>154700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>175900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>153400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>126800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>130000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>164900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>240000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>124400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>85700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="E22" s="3">
         <v>5800</v>
       </c>
       <c r="F22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J22" s="3">
         <v>5600</v>
       </c>
-      <c r="G22" s="3">
-        <v>13200</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>5600</v>
       </c>
-      <c r="I22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>10700</v>
       </c>
       <c r="M22" s="3">
         <v>5400</v>
       </c>
       <c r="N22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P22" s="3">
         <v>5200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>197100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>148900</v>
+      </c>
+      <c r="F23" s="3">
         <v>151700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>131200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>94000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>111100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>140800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>120000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>95800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>98100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>127400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>206900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>92000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>58900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F24" s="3">
         <v>15900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>33800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-15200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>18500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>20900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>19000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>19700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>24000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>31900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-7500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>176200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>125100</v>
+      </c>
+      <c r="F26" s="3">
         <v>135900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>97400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>109100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>92600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>120000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>101000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>88700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>78400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>103400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>175000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>85200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>66300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>176200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>125100</v>
+      </c>
+      <c r="F27" s="3">
         <v>135900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>97400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>109100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>92600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>120000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>101000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>88700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>78400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>103400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>175000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>85200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>66300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1573,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1587,26 +1708,26 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>51200</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2500</v>
+        <v>4100</v>
       </c>
       <c r="E32" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>176200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>125100</v>
+      </c>
+      <c r="F33" s="3">
         <v>135900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>97400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>109100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>143800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>120000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>101000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>87000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-105900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>103400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>175000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>85200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>66300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>176200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>125100</v>
+      </c>
+      <c r="F35" s="3">
         <v>135900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>97400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>109100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>143800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>120000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>101000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>87000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-105900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>103400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>175000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>85200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>66300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,404 +2137,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>593500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>773900</v>
+      </c>
+      <c r="F41" s="3">
         <v>593900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>495100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>483700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>926800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>814000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>480400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>637900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>429800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>418700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>598300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>324700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>307900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>137300</v>
+      </c>
+      <c r="F42" s="3">
         <v>342500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>400200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>421100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>190100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>418400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>712300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>860500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1348000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1217800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>809300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>895600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>871000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>487400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>362400</v>
+      </c>
+      <c r="F43" s="3">
         <v>357900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>372200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>333800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>291300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>352500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>454100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>414000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>272800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>268100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>405900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>315000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>192400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>196700</v>
+      </c>
+      <c r="F44" s="3">
         <v>178200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>164500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>161300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>153500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>154700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>135600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>131900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>107500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>125200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>153600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>203300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>136000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>227700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>188600</v>
+      </c>
+      <c r="F45" s="3">
         <v>182000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>184800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>194000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>170800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>139800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>111800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>112200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>112200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>110300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>112700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>115600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>116500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1702600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1658900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1654600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1616800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1594000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1732500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1879400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1894200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2156400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2270300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2140100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2080000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1854200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1623800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>104500</v>
+      </c>
+      <c r="F47" s="3">
         <v>103600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>99000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>91900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>87700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>92000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>111400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>89300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>125900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>211900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>212500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>262100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>433800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>377800</v>
+      </c>
+      <c r="F48" s="3">
         <v>365200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>352200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>334000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>279800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>278100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>285300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>281300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>268400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>259100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>258000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>253500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>253800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>524300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>541900</v>
+      </c>
+      <c r="F49" s="3">
         <v>467300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>493400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>498900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>507300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>533000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>536800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>360100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>331100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>335000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>332800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>324900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>323700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2683,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>104000</v>
+      </c>
+      <c r="F52" s="3">
         <v>108200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>110000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>97800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>99200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>100100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>104000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>108100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>113800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>143200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>146900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>147600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>127300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2820400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2787000</v>
+      </c>
+      <c r="F54" s="3">
         <v>2698800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2671500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2616600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2706600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2882500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2931700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2995200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3109500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3089300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3030200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2842300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2762500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,52 +2877,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>126600</v>
+      </c>
+      <c r="F57" s="3">
         <v>117900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>103400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>118800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>107900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>102700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>104000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>86400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>79400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>103500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>121400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>95400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,184 +2973,214 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>384300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>412400</v>
+      </c>
+      <c r="F59" s="3">
         <v>375800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>363600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>323200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>375600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>350500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>349600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>287400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>367900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>351900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>335800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>271600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>277300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>539000</v>
+      </c>
+      <c r="F60" s="3">
         <v>493700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>467000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>442000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>476300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>458400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>452300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>391300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>454300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>431400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>439200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>393100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>372700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>398500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>394700</v>
+      </c>
+      <c r="F61" s="3">
         <v>390900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>387200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>383600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>380000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>376400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>372900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>369400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>366000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>362600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>359200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>355900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>352700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>357300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>373100</v>
+      </c>
+      <c r="F62" s="3">
         <v>331500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>337900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>320900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>328000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>379900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>366600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>329500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>335600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>185500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>183100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>173400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>208500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1269700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1306900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1216200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1192100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1146400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1184300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1214700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1191800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1090200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1155900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>979400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>981600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>922400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>933800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-164300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-241900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-226400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-222500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-215600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-158200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>74300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>216100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>272000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>438200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>405000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>300300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>230300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1550700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1480200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1482600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1479400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1470200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1522400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1667800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1739900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1905000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1953600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2109900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2048600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1919900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1828700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>176200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>125100</v>
+      </c>
+      <c r="F81" s="3">
         <v>135900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>97400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>109100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>143800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>120000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>101000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>87000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-105900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>103400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>175000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>85200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>66300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F83" s="3">
         <v>29500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>29300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>29600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>30400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>29500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>25500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>26500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>26700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>27700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>27200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>25300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>216300</v>
+      </c>
+      <c r="F89" s="3">
         <v>199100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>145300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>18000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>186400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>240600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>131900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-81900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>147500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>309800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>230300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-61100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>37200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-37100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-33200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-25700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-26100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-25600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-27900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-34800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-32100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-27300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-23900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-22100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-38000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>110200</v>
+      </c>
+      <c r="F94" s="3">
         <v>22300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-28200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-261000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>204000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>300500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-44300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>462900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-74500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-428400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>113700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>126400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-372300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,52 +4612,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-15300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-15400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-15600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-16000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-16600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-17100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-17600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-13700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-13800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-13900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-14000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-12100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4808,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-113900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-122700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-105500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-199800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-277400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-207900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-243700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-174400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-62500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-62200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-70500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-50000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>347700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
       </c>
       <c r="H101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2500</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="R101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-180400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>180000</v>
+      </c>
+      <c r="F102" s="3">
         <v>98800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>11400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-443000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>112700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>333600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-157500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>208000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>11200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-179700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>273600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>16900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>9900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>TER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>838700</v>
+      </c>
+      <c r="E8" s="3">
         <v>704400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>654700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>582000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>564200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>494100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>519600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>566800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>526900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>487500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>479400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>503400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>696900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>456900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>380000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>367200</v>
+      </c>
+      <c r="E9" s="3">
         <v>298800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>271400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>237000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>240300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>206500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>210000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>233200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>219600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>217600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>208500</v>
       </c>
       <c r="N9" s="3">
         <v>208500</v>
       </c>
       <c r="O9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="P9" s="3">
         <v>306300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>191900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>161000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>471500</v>
+      </c>
+      <c r="E10" s="3">
         <v>405600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>383300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>345000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>323900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>287600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>309600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>333600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>307300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>269900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>270900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>294900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>390600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>265000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>219000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E12" s="3">
         <v>85200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>86800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>77800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>81400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>76800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>74700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>77000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>75300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>74400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>72100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>77000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>82300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>76000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>70100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,108 +1024,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-7600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-4400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-10400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E15" s="3">
         <v>9900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10600</v>
       </c>
       <c r="I15" s="3">
         <v>10600</v>
       </c>
       <c r="J15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K15" s="3">
         <v>11100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>620700</v>
+      </c>
+      <c r="E17" s="3">
         <v>497600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>483000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>427100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>430200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>401000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>407300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>423300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>406500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>389900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>384800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>374200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>489100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>363100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>320800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E18" s="3">
         <v>206800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>171700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>154900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>134000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>93100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>112300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>143500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>120400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>97600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>94600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>129200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>207800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>93800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>59200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,258 +1277,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>12000</v>
       </c>
       <c r="I20" s="3">
         <v>12000</v>
       </c>
       <c r="J20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E21" s="3">
         <v>234500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>186900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>186700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>166200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>134700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>154700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>175900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>153400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>126800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>130000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>164900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>240000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>124400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>85700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3">
         <v>5600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5600</v>
       </c>
       <c r="K22" s="3">
         <v>5600</v>
       </c>
       <c r="L22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="M22" s="3">
         <v>5400</v>
       </c>
       <c r="N22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O22" s="3">
         <v>10700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>217300</v>
+      </c>
+      <c r="E23" s="3">
         <v>197100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>148900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>151700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>131200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>94000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>111100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>140800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>120000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>127400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>206900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>92000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>58900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E24" s="3">
         <v>20900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-15200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E26" s="3">
         <v>176200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>125100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>135900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>97400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>109100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>92600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>120000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>101000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>88700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>78400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>103400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>175000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>85200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>66300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E27" s="3">
         <v>176200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>125100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>135900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>97400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>109100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>92600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>120000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>101000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>88700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>78400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>103400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>175000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>85200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>66300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1714,23 +1775,23 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>51200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E32" s="3">
         <v>4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-12000</v>
       </c>
       <c r="I32" s="3">
         <v>-12000</v>
       </c>
       <c r="J32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E33" s="3">
         <v>176200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>125100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>135900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>97400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>109100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>143800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>120000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>101000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>87000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-105900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>103400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>175000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>85200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>66300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E35" s="3">
         <v>176200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>125100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>135900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>97400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>109100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>143800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>120000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>101000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>87000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-105900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>103400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>175000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>85200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>66300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,458 +2225,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>725400</v>
+      </c>
+      <c r="E41" s="3">
         <v>593500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>773900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>593900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>495100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>483700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>926800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>814000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>480400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>637900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>429800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>418700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>598300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>324700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>307900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E42" s="3">
         <v>211000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>137300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>342500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>400200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>421100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>190100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>418400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>712300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>860500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1348000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1217800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>809300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>895600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>871000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>694500</v>
+      </c>
+      <c r="E43" s="3">
         <v>487400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>362400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>357900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>372200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>333800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>291300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>352500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>454100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>414000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>272800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>268100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>405900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>315000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>192400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>206100</v>
+      </c>
+      <c r="E44" s="3">
         <v>183000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>196700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>178200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>164500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>161300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>153500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>154700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>135600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>131900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>107500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>125200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>153600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>203300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>136000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>238200</v>
+      </c>
+      <c r="E45" s="3">
         <v>227700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>188600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>182000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>184800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>194000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>170800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>139800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>111800</v>
-      </c>
-      <c r="L45" s="3">
-        <v>112200</v>
       </c>
       <c r="M45" s="3">
         <v>112200</v>
       </c>
       <c r="N45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="O45" s="3">
         <v>110300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>112700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>115600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>116500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1702600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1658900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1654600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1616800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1594000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1732500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1879400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1894200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2156400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2270300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2140100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2080000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1854200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1623800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E47" s="3">
         <v>100500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>104500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>103600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>99000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>91900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>87700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>92000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>111400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>89300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>125900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>211900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>212500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>262100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>433800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>409800</v>
+      </c>
+      <c r="E48" s="3">
         <v>391000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>377800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>365200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>352200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>334000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>279800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>278100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>285300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>281300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>268400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>259100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>258000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>253500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>253800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>529600</v>
+      </c>
+      <c r="E49" s="3">
         <v>524300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>541900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>467300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>493400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>498900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>507300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>533000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>536800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>360100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>331100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>335000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>332800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>324900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>323700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E52" s="3">
         <v>102000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>104000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>108200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>110000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>97800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>99200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>104000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>108100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>113800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>143200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>146900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>147600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>127300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3249200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2820400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2787000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2698800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2671500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2616600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2706600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2882500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2931700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2995200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3109500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3089300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3030200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2842300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2762500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,58 +3009,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>184200</v>
+      </c>
+      <c r="E57" s="3">
         <v>129600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>126600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>117900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>103400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>118800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>107900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>102700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>104000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>86400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>79400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>103500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>121400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>95400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,208 +3113,223 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>545600</v>
+      </c>
+      <c r="E59" s="3">
         <v>384300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>412400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>375800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>363600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>323200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>375600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>350500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>349600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>287400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>367900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>351900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>335800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>271600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>277300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>729700</v>
+      </c>
+      <c r="E60" s="3">
         <v>514000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>539000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>493700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>467000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>442000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>476300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>458400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>452300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>391300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>454300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>431400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>439200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>393100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>372700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>402300</v>
+      </c>
+      <c r="E61" s="3">
         <v>398500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>394700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>390900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>387200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>383600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>380000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>376400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>372900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>369400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>366000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>362600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>359200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>355900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>352700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>372600</v>
+      </c>
+      <c r="E62" s="3">
         <v>357300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>373100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>331500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>337900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>320900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>328000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>379900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>366600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>329500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>335600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>185500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>183100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>173400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>208500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1504600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1269700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1306900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1216200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1192100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1146400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1184300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1214700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1191800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1090200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1155900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>979400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>981600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>922400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>933800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-164300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-241900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-226400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-222500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-215600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-158200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>74300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>216100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>272000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>438200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>405000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>300300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>230300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1744600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1550700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1480200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1482600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1479400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1470200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1522400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1667800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1739900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1905000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1953600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2109900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2048600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1919900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1828700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E81" s="3">
         <v>176200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>125100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>135900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>97400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>109100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>143800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>120000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>101000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>87000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-105900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>103400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>175000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>85200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>66300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E83" s="3">
         <v>31900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>29500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>26700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>222900</v>
+      </c>
+      <c r="E89" s="3">
         <v>43100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>216300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>199100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>145300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>186400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>240600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>131900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-81900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>147500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>309800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>230300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-110200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>110200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>22300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-261000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>204000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>300500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>462900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-74500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-428400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>113700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>126400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-372300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,58 +4847,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-15000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-15300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-15400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-15600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-16000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-16600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-17100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-17600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-13700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-13800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-12100</v>
       </c>
       <c r="R96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-113900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-146400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-122700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-105500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-199800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-277400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-207900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-243700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-174400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-62200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-70500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>347700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="R101" s="3" t="s">
+      <c r="S101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-180400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>180000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>98800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-443000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>112700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>333600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-157500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>208000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-179700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>273600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>TER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>819500</v>
+      </c>
+      <c r="E8" s="3">
         <v>838700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>704400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>654700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>582000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>564200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>494100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>519600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>566800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>526900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>487500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>479400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>503400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>696900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>456900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>380000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>360600</v>
+      </c>
+      <c r="E9" s="3">
         <v>367200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>298800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>271400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>237000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>240300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>206500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>210000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>233200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>219600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>217600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>208500</v>
       </c>
       <c r="O9" s="3">
         <v>208500</v>
       </c>
       <c r="P9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="Q9" s="3">
         <v>306300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>191900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>161000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>458900</v>
+      </c>
+      <c r="E10" s="3">
         <v>471500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>405600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>383300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>345000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>323900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>287600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>309600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>333600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>307300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>269900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>270900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>294900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>390600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>265000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>219000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E12" s="3">
         <v>94100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>85200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>86800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>77800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>81400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>76800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>74700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>77000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>75300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>74400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>72100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>77000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>82300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>76000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>70100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,114 +1044,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E14" s="3">
         <v>37200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-7600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-4400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-10400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-4400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E15" s="3">
         <v>8900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>10600</v>
       </c>
       <c r="J15" s="3">
         <v>10600</v>
       </c>
       <c r="K15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L15" s="3">
         <v>11100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>549800</v>
+      </c>
+      <c r="E17" s="3">
         <v>620700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>497600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>483000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>427100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>430200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>401000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>407300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>423300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>406500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>389900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>384800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>374200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>489100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>363100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>320800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>269700</v>
+      </c>
+      <c r="E18" s="3">
         <v>218000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>206800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>171700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>154900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>134000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>93100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>112300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>143500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>120400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>97600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>94600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>129200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>207800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>93800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>59200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1278,273 +1311,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>5300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>12000</v>
       </c>
       <c r="J20" s="3">
         <v>12000</v>
       </c>
       <c r="K20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E21" s="3">
         <v>256000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>234500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>186900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>186700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>166200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>134700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>154700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>175900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>153400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>126800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>130000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>164900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>240000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>124400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>85700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
         <v>6000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5600</v>
       </c>
       <c r="L22" s="3">
         <v>5600</v>
       </c>
       <c r="M22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="N22" s="3">
         <v>5400</v>
       </c>
       <c r="O22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P22" s="3">
         <v>10700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E23" s="3">
         <v>217300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>197100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>148900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>151700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>131200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>94000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>111100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>140800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>120000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>95800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>127400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>206900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>92000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>58900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>33800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-15200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-7500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E26" s="3">
         <v>188900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>176200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>125100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>135900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>97400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>109100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>92600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>120000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>101000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>88700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>78400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>103400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>175000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>85200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>66300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E27" s="3">
         <v>188900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>176200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>125100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>135900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>97400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>109100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>92600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>101000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>88700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>78400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>103400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>175000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>85200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>66300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1778,23 +1839,23 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>51200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-12000</v>
       </c>
       <c r="J32" s="3">
         <v>-12000</v>
       </c>
       <c r="K32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E33" s="3">
         <v>188900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>176200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>125100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>135900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>97400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>109100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>143800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>120000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>101000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>87000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-105900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>103400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>175000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>85200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>66300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E35" s="3">
         <v>188900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>176200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>125100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>135900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>97400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>109100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>143800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>120000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>101000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>87000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-105900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>103400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>175000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>85200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>66300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,485 +2312,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>945200</v>
+      </c>
+      <c r="E41" s="3">
         <v>725400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>593500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>773900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>593900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>495100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>483700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>926800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>814000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>480400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>637900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>429800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>418700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>598300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>324700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>307900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>287800</v>
+      </c>
+      <c r="E42" s="3">
         <v>229800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>211000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>137300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>342500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>400200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>421100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>190100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>418400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>712300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>860500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1348000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1217800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>809300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>895600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>871000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>587200</v>
+      </c>
+      <c r="E43" s="3">
         <v>694500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>487400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>362400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>357900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>372200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>333800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>291300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>352500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>454100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>414000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>272800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>268100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>405900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>315000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>192400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E44" s="3">
         <v>206100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>183000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>196700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>178200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>164500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>161300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>153500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>154700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>135600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>131900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>107500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>125200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>153600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>203300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>136000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E45" s="3">
         <v>238200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>227700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>188600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>182000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>184800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>194000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>170800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>139800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>111800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>112200</v>
       </c>
       <c r="N45" s="3">
         <v>112200</v>
       </c>
       <c r="O45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="P45" s="3">
         <v>110300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>112700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>115600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>116500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2243600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2094000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1702600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1658900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1654600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1616800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1594000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1732500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1879400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1894200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2156400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2270300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2140100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2080000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1854200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1623800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E47" s="3">
         <v>107000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>104500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>103600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>99000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>91900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>87700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>92000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>111400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>89300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>125900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>211900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>212500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>262100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>433800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>440900</v>
+      </c>
+      <c r="E48" s="3">
         <v>409800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>391000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>377800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>365200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>352200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>334000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>279800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>278100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>285300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>281300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>268400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>259100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>258000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>253500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>253800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>538900</v>
+      </c>
+      <c r="E49" s="3">
         <v>529600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>524300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>541900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>467300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>493400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>498900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>507300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>533000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>536800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>360100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>331100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>335000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>332800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>324900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>323700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E52" s="3">
         <v>108900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>104000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>108200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>110000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>97800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>99200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>104000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>108100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>113800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>143200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>146900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>147600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>127300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3436500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3249200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2820400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2787000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2698800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2671500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2616600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2706600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2882500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2931700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2995200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3109500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3089300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3030200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2842300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2762500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,61 +3140,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E57" s="3">
         <v>184200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>129600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>126600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>117900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>103400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>118800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>107900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>102700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>104000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>86400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>79400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>103500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>121400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>95400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,220 +3250,235 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>521400</v>
+      </c>
+      <c r="E59" s="3">
         <v>545600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>384300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>412400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>375800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>363600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>323200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>375600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>350500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>349600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>287400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>367900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>351900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>335800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>271600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>277300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>671800</v>
+      </c>
+      <c r="E60" s="3">
         <v>729700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>514000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>539000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>493700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>467000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>442000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>476300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>458400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>452300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>391300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>454300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>431400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>439200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>393100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>372700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>406200</v>
+      </c>
+      <c r="E61" s="3">
         <v>402300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>398500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>394700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>390900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>387200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>383600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>380000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>376400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>372900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>369400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>366000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>362600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>359200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>355900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>352700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E62" s="3">
         <v>372600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>357300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>373100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>331500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>337900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>320900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>328000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>379900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>366600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>329500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>335600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>185500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>183100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>173400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>208500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1443000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1504600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1269700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1306900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1216200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1192100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1146400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1184300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1214700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1191800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1090200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1155900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>979400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>981600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>922400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>933800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>207700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-164300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-241900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-226400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-222500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-215600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-158200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>74300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>216100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>272000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>438200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>405000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>300300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>230300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1993500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1744600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1550700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1480200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1482600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1479400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1470200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1522400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1667800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1739900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1905000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1953600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2109900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2048600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1919900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1828700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E81" s="3">
         <v>188900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>176200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>125100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>135900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>97400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>109100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>143800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>120000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>101000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>87000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-105900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>103400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>175000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>85200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>66300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E83" s="3">
         <v>32700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>26500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>342500</v>
+      </c>
+      <c r="E89" s="3">
         <v>222900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>216300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>199100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>145300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>186400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>240600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>131900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-81900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>147500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>309800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>230300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-61100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-110200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>110200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>22300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-261000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>204000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>300500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-44300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>462900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-74500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-428400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>113700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>126400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-372300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4857,52 +5091,55 @@
         <v>-16600</v>
       </c>
       <c r="E96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-16700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-15000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-15300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-15400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-15600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-16000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-17100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-17600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-13700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-12100</v>
       </c>
       <c r="S96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5303,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-113900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-146400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-122700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-105500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-199800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-277400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-207900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-243700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-174400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-62500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-62200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-70500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-50000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>347700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2500</v>
       </c>
-      <c r="S101" s="3" t="s">
+      <c r="T101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>219700</v>
+      </c>
+      <c r="E102" s="3">
         <v>131900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-180400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>180000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>98800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-443000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>112700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>333600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-157500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>208000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-179700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>273600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E8" s="3">
         <v>819500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>838700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>704400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>654700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>582000</v>
       </c>
-      <c r="I8" s="3">
-        <v>564200</v>
-      </c>
       <c r="J8" s="3">
+        <v>1058300</v>
+      </c>
+      <c r="K8" s="3">
         <v>494100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>519600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>566800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>526900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>487500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>479400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>503400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>696900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>456900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>380000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>309200</v>
+      </c>
+      <c r="E9" s="3">
         <v>360600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>367200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>298800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>271400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>237000</v>
       </c>
-      <c r="I9" s="3">
-        <v>240300</v>
-      </c>
       <c r="J9" s="3">
+        <v>446700</v>
+      </c>
+      <c r="K9" s="3">
         <v>206500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>210000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>233200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>219600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>217600</v>
-      </c>
-      <c r="O9" s="3">
-        <v>208500</v>
       </c>
       <c r="P9" s="3">
         <v>208500</v>
       </c>
       <c r="Q9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="R9" s="3">
         <v>306300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>191900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>161000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>449800</v>
+      </c>
+      <c r="E10" s="3">
         <v>458900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>471500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>405600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>383300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>345000</v>
       </c>
-      <c r="I10" s="3">
-        <v>323900</v>
-      </c>
       <c r="J10" s="3">
+        <v>611600</v>
+      </c>
+      <c r="K10" s="3">
         <v>287600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>309600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>333600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>307300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>269900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>270900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>294900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>390600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>265000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>219000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E12" s="3">
         <v>94900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>94100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>85200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>86800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>77800</v>
       </c>
-      <c r="I12" s="3">
-        <v>81400</v>
-      </c>
       <c r="J12" s="3">
+        <v>158200</v>
+      </c>
+      <c r="K12" s="3">
         <v>76800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>74700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>77000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>75300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>74400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>72100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>77000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>82300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>76000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>70100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,120 +1063,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-27700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>37200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-7600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-4400</v>
       </c>
-      <c r="I14" s="3">
-        <v>-10400</v>
-      </c>
       <c r="J14" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K14" s="3">
         <v>5100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E15" s="3">
         <v>6200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9600</v>
       </c>
-      <c r="I15" s="3">
-        <v>10100</v>
-      </c>
       <c r="J15" s="3">
-        <v>10600</v>
+        <v>20700</v>
       </c>
       <c r="K15" s="3">
         <v>10600</v>
       </c>
       <c r="L15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M15" s="3">
         <v>11100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>524900</v>
+      </c>
+      <c r="E17" s="3">
         <v>549800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>620700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>497600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>483000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>427100</v>
       </c>
-      <c r="I17" s="3">
-        <v>430200</v>
-      </c>
       <c r="J17" s="3">
+        <v>831200</v>
+      </c>
+      <c r="K17" s="3">
         <v>401000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>407300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>423300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>406500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>389900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>384800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>374200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>489100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>363100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>320800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E18" s="3">
         <v>269700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>218000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>206800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>171700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>154900</v>
       </c>
-      <c r="I18" s="3">
-        <v>134000</v>
-      </c>
       <c r="J18" s="3">
+        <v>227100</v>
+      </c>
+      <c r="K18" s="3">
         <v>93100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>112300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>143500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>120400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>97600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>94600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>129200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>207800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>93800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>59200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1312,288 +1344,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-17100</v>
-      </c>
       <c r="H20" s="3">
-        <v>2300</v>
+        <v>-11700</v>
       </c>
       <c r="I20" s="3">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="J20" s="3">
-        <v>12000</v>
+        <v>9400</v>
       </c>
       <c r="K20" s="3">
         <v>12000</v>
       </c>
       <c r="L20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>261300</v>
+      </c>
+      <c r="E21" s="3">
         <v>300100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>256000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>234500</v>
       </c>
-      <c r="G21" s="3">
-        <v>186900</v>
-      </c>
       <c r="H21" s="3">
-        <v>186700</v>
+        <v>192300</v>
       </c>
       <c r="I21" s="3">
-        <v>166200</v>
+        <v>192200</v>
       </c>
       <c r="J21" s="3">
+        <v>295300</v>
+      </c>
+      <c r="K21" s="3">
         <v>134700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>154700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>175900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>153400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>126800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>130000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>164900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>240000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>124400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>85700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E22" s="3">
         <v>6200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5600</v>
       </c>
-      <c r="G22" s="3">
-        <v>5800</v>
-      </c>
       <c r="H22" s="3">
-        <v>5500</v>
+        <v>11100</v>
       </c>
       <c r="I22" s="3">
-        <v>5800</v>
+        <v>10900</v>
       </c>
       <c r="J22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K22" s="3">
         <v>11100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5600</v>
       </c>
       <c r="M22" s="3">
         <v>5600</v>
       </c>
       <c r="N22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="O22" s="3">
         <v>5400</v>
       </c>
       <c r="P22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>10700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>222900</v>
+      </c>
+      <c r="E23" s="3">
         <v>263700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>217300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>197100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>148900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>151700</v>
       </c>
-      <c r="I23" s="3">
-        <v>131200</v>
-      </c>
       <c r="J23" s="3">
+        <v>225200</v>
+      </c>
+      <c r="K23" s="3">
         <v>94000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>111100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>140800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>120000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>95800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>127400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>206900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>92000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>58900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E24" s="3">
         <v>41000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15900</v>
       </c>
-      <c r="I24" s="3">
-        <v>33800</v>
-      </c>
       <c r="J24" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-15200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-7500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E26" s="3">
         <v>222700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>188900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>176200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>125100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>135900</v>
       </c>
-      <c r="I26" s="3">
-        <v>97400</v>
-      </c>
       <c r="J26" s="3">
+        <v>206500</v>
+      </c>
+      <c r="K26" s="3">
         <v>109100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>92600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>120000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>101000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>88700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>78400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>103400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>175000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>85200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>66300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E27" s="3">
         <v>222700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>188900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>176200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>125100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>135900</v>
       </c>
-      <c r="I27" s="3">
-        <v>97400</v>
-      </c>
       <c r="J27" s="3">
+        <v>206500</v>
+      </c>
+      <c r="K27" s="3">
         <v>109100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>92600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>120000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>101000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>88700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>78400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>103400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>175000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>66300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1842,23 +1902,23 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>51200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4100</v>
       </c>
-      <c r="G32" s="3">
-        <v>17100</v>
-      </c>
       <c r="H32" s="3">
-        <v>-2300</v>
+        <v>11700</v>
       </c>
       <c r="I32" s="3">
-        <v>-3000</v>
+        <v>-7800</v>
       </c>
       <c r="J32" s="3">
-        <v>-12000</v>
+        <v>-9400</v>
       </c>
       <c r="K32" s="3">
         <v>-12000</v>
       </c>
       <c r="L32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E33" s="3">
         <v>222700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>188900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>176200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>125100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>135900</v>
       </c>
-      <c r="I33" s="3">
-        <v>97400</v>
-      </c>
       <c r="J33" s="3">
+        <v>206500</v>
+      </c>
+      <c r="K33" s="3">
         <v>109100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>143800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>120000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>101000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>87000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-105900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>103400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>175000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>85200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>66300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E35" s="3">
         <v>222700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>188900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>176200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>125100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>135900</v>
       </c>
-      <c r="I35" s="3">
-        <v>97400</v>
-      </c>
       <c r="J35" s="3">
+        <v>206500</v>
+      </c>
+      <c r="K35" s="3">
         <v>109100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>143800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>120000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>101000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>87000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-105900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>103400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>175000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>85200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>66300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,512 +2398,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>914100</v>
+      </c>
+      <c r="E41" s="3">
         <v>945200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>725400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>593500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>773900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>593900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>495100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>483700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>926800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>814000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>480400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>637900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>429800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>418700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>598300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>324700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>307900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>522300</v>
+      </c>
+      <c r="E42" s="3">
         <v>287800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>229800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>211000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>137300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>342500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>400200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>421100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>190100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>418400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>712300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>860500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1348000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1217800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>809300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>895600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>871000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>497500</v>
+      </c>
+      <c r="E43" s="3">
         <v>587200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>694500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>487400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>362400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>357900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>372200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>333800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>291300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>352500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>454100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>414000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>272800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>268100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>405900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>315000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>192400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E44" s="3">
         <v>191300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>206100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>183000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>196700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>178200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>164500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>161300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>153500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>154700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>135600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>131900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>107500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>125200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>153600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>203300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>136000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>259300</v>
+      </c>
+      <c r="E45" s="3">
         <v>232100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>238200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>227700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>188600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>182000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>184800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>194000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>170800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>139800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>111800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>112200</v>
       </c>
       <c r="O45" s="3">
         <v>112200</v>
       </c>
       <c r="P45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>110300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>112700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>115600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>116500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2415400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2243600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2094000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1702600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1658900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1654600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1616800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1594000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1732500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1879400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1894200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2156400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2270300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2140100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2080000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1854200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1623800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E47" s="3">
         <v>108300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>107000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>104500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>103600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>99000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>91900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>87700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>92000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>111400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>89300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>125900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>211900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>212500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>262100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>433800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>449400</v>
+      </c>
+      <c r="E48" s="3">
         <v>440900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>409800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>391000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>377800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>365200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>352200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>334000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>279800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>278100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>285300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>281300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>268400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>259100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>258000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>253500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>253800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>554800</v>
+      </c>
+      <c r="E49" s="3">
         <v>538900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>529600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>524300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>541900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>467300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>493400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>498900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>507300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>533000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>536800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>360100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>331100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>335000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>332800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>324900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>323700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E52" s="3">
         <v>104800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>108900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>102000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>104000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>108200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>110000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>97800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>99200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>104000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>108100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>113800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>143200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>146900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>147600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>127300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3652300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3436500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3249200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2820400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2787000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2698800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2671500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2616600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2706600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2882500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2931700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2995200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3109500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3089300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3030200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2842300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2762500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,87 +3270,91 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>133700</v>
+      </c>
+      <c r="E57" s="3">
         <v>150400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>184200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>129600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>126600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>117900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>103400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>118800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>107900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>102700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>104000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>86400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>79400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>103500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>121400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>95400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>33300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3253,232 +3386,247 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>533900</v>
+      </c>
+      <c r="E59" s="3">
         <v>521400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>545600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>384300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>412400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>375800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>363600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>323200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>375600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>350500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>349600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>287400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>367900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>351900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>335800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>271600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>277300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700900</v>
+      </c>
+      <c r="E60" s="3">
         <v>671800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>729700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>514000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>539000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>493700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>467000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>442000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>476300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>458400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>452300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>391300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>454300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>431400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>439200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>393100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>372700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>376800</v>
+      </c>
+      <c r="E61" s="3">
         <v>406200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>402300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>398500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>394700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>390900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>387200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>383600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>380000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>376400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>372900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>369400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>366000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>362600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>359200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>355900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>352700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>363900</v>
+      </c>
+      <c r="E62" s="3">
         <v>365000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>372600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>357300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>373100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>331500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>337900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>320900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>328000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>379900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>366600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>329500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>335600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>185500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>183100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>173400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>208500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1441500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1443000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1504600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1269700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1306900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1216200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1192100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1146400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1184300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1214700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1191800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1090200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1155900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>979400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>981600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>922400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>933800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>387400</v>
+      </c>
+      <c r="E72" s="3">
         <v>207700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-164300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-241900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-226400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-222500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-215600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-158200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>74300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>216100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>272000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>438200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>405000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>300300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>230300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2210800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1993500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1744600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1550700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1480200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1482600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1479400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1470200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1522400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1667800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1739900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1905000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1953600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2109900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2048600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1919900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1828700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E81" s="3">
         <v>222700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>188900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>176200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>125100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>135900</v>
       </c>
-      <c r="I81" s="3">
-        <v>97400</v>
-      </c>
       <c r="J81" s="3">
+        <v>206500</v>
+      </c>
+      <c r="K81" s="3">
         <v>109100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>143800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>120000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>101000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>87000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-105900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>103400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>175000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>85200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>66300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E83" s="3">
         <v>30100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29500</v>
       </c>
-      <c r="I83" s="3">
-        <v>29300</v>
-      </c>
       <c r="J83" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K83" s="3">
         <v>29600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>260400</v>
+      </c>
+      <c r="E89" s="3">
         <v>342500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>222900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>43100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>216300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>199100</v>
       </c>
-      <c r="I89" s="3">
-        <v>145300</v>
-      </c>
       <c r="J89" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K89" s="3">
         <v>18000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>186400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>240600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>131900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-81900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>147500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>309800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>230300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-61100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-62900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37100</v>
       </c>
-      <c r="I91" s="3">
-        <v>-33200</v>
-      </c>
       <c r="J91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-277200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-119400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-63000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-110200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>110200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>22300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-28200</v>
-      </c>
       <c r="J94" s="3">
+        <v>-289200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-261000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>204000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>300500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-44300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>462900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-428400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>113700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>126400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-372300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5094,52 +5327,55 @@
         <v>-16600</v>
       </c>
       <c r="F96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-16700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-15000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-15300</v>
       </c>
-      <c r="I96" s="3">
-        <v>-15400</v>
-      </c>
       <c r="J96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-15600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-17100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-17600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-13900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-12100</v>
       </c>
       <c r="T96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-113900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-146400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-122700</v>
       </c>
-      <c r="I100" s="3">
-        <v>-105500</v>
-      </c>
       <c r="J100" s="3">
+        <v>-305200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-199800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-277400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-207900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-243700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-174400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-62500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-70500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-50000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>347700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2500</v>
       </c>
-      <c r="T101" s="3" t="s">
+      <c r="U101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E102" s="3">
         <v>219700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>131900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-180400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>180000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>98800</v>
       </c>
-      <c r="I102" s="3">
-        <v>11400</v>
-      </c>
       <c r="J102" s="3">
+        <v>-431600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-443000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>112700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>333600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-157500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>208000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-179700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>273600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>781600</v>
+      </c>
+      <c r="E8" s="3">
         <v>759000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>819500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>838700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>704400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>654700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>582000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1058300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>494100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>519600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>566800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>526900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>487500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>479400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>503400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>696900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>456900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>380000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E9" s="3">
         <v>309200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>360600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>367200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>298800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>271400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>237000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>446700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>206500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>210000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>233200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>219600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>217600</v>
-      </c>
-      <c r="P9" s="3">
-        <v>208500</v>
       </c>
       <c r="Q9" s="3">
         <v>208500</v>
       </c>
       <c r="R9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="S9" s="3">
         <v>306300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>191900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>161000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>461600</v>
+      </c>
+      <c r="E10" s="3">
         <v>449800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>458900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>471500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>405600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>383300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>345000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>611600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>287600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>309600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>333600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>307300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>269900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>270900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>294900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>390600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>265000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>219000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E12" s="3">
         <v>100800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>94900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>94100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>85200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>86800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>77800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>158200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>76800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>74700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>77000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>75300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>74400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>72100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>77000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>82300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>76000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>70100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,126 +1083,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-14400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-27700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>37200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-7600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-4400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-5300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-4400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E15" s="3">
         <v>5800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>10600</v>
       </c>
       <c r="L15" s="3">
         <v>10600</v>
       </c>
       <c r="M15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N15" s="3">
         <v>11100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>548600</v>
+      </c>
+      <c r="E17" s="3">
         <v>524900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>549800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>620700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>497600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>483000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>427100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>831200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>401000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>407300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>423300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>406500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>389900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>384800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>374200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>489100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>363100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>320800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E18" s="3">
         <v>234100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>269700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>218000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>206800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>171700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>154900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>227100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>93100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>112300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>143500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>120400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>97600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>94600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>129200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>207800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>93800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>59200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1345,303 +1378,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>12000</v>
       </c>
       <c r="L20" s="3">
         <v>12000</v>
       </c>
       <c r="M20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E21" s="3">
         <v>261300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>256000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>234500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>192300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>192200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>295300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>134700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>154700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>175900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>153400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>126800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>130000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>164900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>240000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>124400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>85700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3">
         <v>6400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5600</v>
       </c>
       <c r="N22" s="3">
         <v>5600</v>
       </c>
       <c r="O22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="P22" s="3">
         <v>5400</v>
       </c>
       <c r="Q22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R22" s="3">
         <v>10700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E23" s="3">
         <v>222900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>263700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>217300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>197100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>148900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>151700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>225200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>94000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>111100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>140800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>120000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>95800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>98100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>127400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>206900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>92000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>58900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E24" s="3">
         <v>26600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>41000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-15200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-7500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>205500</v>
+      </c>
+      <c r="E26" s="3">
         <v>196300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>222700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>188900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>176200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>125100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>135900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>206500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>109100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>92600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>120000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>101000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>88700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>78400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>103400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>175000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>85200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>66300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>205500</v>
+      </c>
+      <c r="E27" s="3">
         <v>196300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>222700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>188900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>176200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>125100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>135900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>206500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>109100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>92600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>120000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>101000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>88700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>78400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>103400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>175000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>85200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>66300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1905,23 +1966,23 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>51200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>4800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-12000</v>
       </c>
       <c r="L32" s="3">
         <v>-12000</v>
       </c>
       <c r="M32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>205500</v>
+      </c>
+      <c r="E33" s="3">
         <v>196300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>222700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>188900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>176200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>125100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>135900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>206500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>109100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>143800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>120000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>101000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>87000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-105900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>103400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>175000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>85200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>66300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>205500</v>
+      </c>
+      <c r="E35" s="3">
         <v>196300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>222700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>188900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>176200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>125100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>135900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>206500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>109100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>143800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>120000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>101000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>87000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-105900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>103400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>175000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>85200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>66300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,539 +2485,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>831100</v>
+      </c>
+      <c r="E41" s="3">
         <v>914100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>945200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>725400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>593500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>773900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>593900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>495100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>483700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>926800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>814000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>480400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>637900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>429800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>418700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>598300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>324700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>307900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>478300</v>
+      </c>
+      <c r="E42" s="3">
         <v>522300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>287800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>229800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>211000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>137300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>342500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>400200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>421100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>190100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>418400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>712300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>860500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1348000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1217800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>809300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>895600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>871000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>581500</v>
+      </c>
+      <c r="E43" s="3">
         <v>497500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>587200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>694500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>487400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>362400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>357900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>372200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>333800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>291300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>352500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>454100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>414000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>272800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>268100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>405900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>315000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>192400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>262500</v>
+      </c>
+      <c r="E44" s="3">
         <v>222200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>191300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>206100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>183000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>196700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>178200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>164500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>161300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>153500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>154700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>135600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>131900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>107500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>125200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>153600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>203300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>136000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>347700</v>
+      </c>
+      <c r="E45" s="3">
         <v>259300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>232100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>238200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>227700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>188600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>182000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>184800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>194000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>170800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>139800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>111800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>112200</v>
       </c>
       <c r="P45" s="3">
         <v>112200</v>
       </c>
       <c r="Q45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="R45" s="3">
         <v>110300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>112700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>115600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>116500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2501100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2415400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2243600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2094000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1702600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1658900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1654600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1616800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1594000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1732500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1879400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1894200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2156400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2270300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2140100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2080000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1854200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1623800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E47" s="3">
         <v>118000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>108300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>107000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>104500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>103600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>99000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>91900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>87700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>92000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>111400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>89300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>125900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>211900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>212500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>262100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>433800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E48" s="3">
         <v>449400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>440900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>409800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>391000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>377800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>365200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>352200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>334000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>279800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>278100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>285300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>281300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>268400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>259100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>258000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>253500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>253800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>530500</v>
+      </c>
+      <c r="E49" s="3">
         <v>554800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>538900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>529600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>524300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>541900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>467300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>493400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>498900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>507300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>533000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>536800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>360100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>331100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>335000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>332800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>324900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>323700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>118600</v>
+      </c>
+      <c r="E52" s="3">
         <v>114800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>104800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>108900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>102000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>104000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>108200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>110000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>97800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>99200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>104000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>108100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>113800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>143200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>146900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>147600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>127300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3719700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3652300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3436500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3249200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2820400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2787000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2698800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2671500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2616600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2706600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2882500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2931700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2995200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3109500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3089300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3030200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2842300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2762500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,75 +3401,79 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>177500</v>
+      </c>
+      <c r="E57" s="3">
         <v>133700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>150400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>184200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>129600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>126600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>117900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>103400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>118800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>107900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>102700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>104000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>86400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>79400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>103500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>121400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>95400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E58" s="3">
         <v>33300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>24</v>
@@ -3356,8 +3490,8 @@
       <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3389,244 +3523,259 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>498300</v>
+      </c>
+      <c r="E59" s="3">
         <v>533900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>521400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>545600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>384300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>412400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>375800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>363600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>323200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>375600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>350500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>349600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>287400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>367900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>351900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>335800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>271600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>277300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>686800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>671800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>729700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>514000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>539000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>493700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>467000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>442000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>476300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>458400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>452300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>391300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>454300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>431400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>439200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>393100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>372700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>356900</v>
+      </c>
+      <c r="E61" s="3">
         <v>376800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>406200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>402300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>398500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>394700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>390900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>387200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>383600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>380000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>376400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>372900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>369400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>366000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>362600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>359200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>355900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>352700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>350200</v>
+      </c>
+      <c r="E62" s="3">
         <v>363900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>365000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>372600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>357300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>373100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>331500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>337900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>320900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>328000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>379900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>366600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>329500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>335600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>185500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>183100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>173400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>208500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1393900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1441500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1443000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1504600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1269700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1306900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1216200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1192100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1146400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1184300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1214700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1191800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1090200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1155900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>979400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>981600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>922400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>933800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>529100</v>
+      </c>
+      <c r="E72" s="3">
         <v>387400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>207700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-164300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-241900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-226400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-222500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-215600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-158200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>74300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>216100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>272000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>438200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>405000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>300300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>230300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2325800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2210800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1993500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1744600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1550700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1480200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1482600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1479400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1470200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1522400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1667800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1739900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1905000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1953600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2109900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2048600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1919900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1828700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>205500</v>
+      </c>
+      <c r="E81" s="3">
         <v>196300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>222700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>188900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>176200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>125100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>135900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>206500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>109100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>143800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>120000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>101000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>87000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-105900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>103400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>175000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>85200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>66300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E83" s="3">
         <v>32100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>58900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E89" s="3">
         <v>260400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>342500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>222900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>216300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>199100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>163300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>186400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>240600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>131900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-81900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>147500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>309800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>230300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-61100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-62900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-47300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-59000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-277200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-119400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-63000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-110200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>110200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>22300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-289200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-261000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>204000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>300500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-44300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>462900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-74500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-428400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>113700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>126400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-372300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,13 +5548,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-16600</v>
+        <v>-16700</v>
       </c>
       <c r="E96" s="3">
         <v>-16600</v>
@@ -5330,52 +5564,55 @@
         <v>-16600</v>
       </c>
       <c r="G96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-16700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-15000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-15300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-31000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-17100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-17600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-13800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-13900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-12100</v>
       </c>
       <c r="U96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-126700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-113900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-146400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-122700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-305200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-199800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-277400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-207900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-243700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-174400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-70500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-50000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>347700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2500</v>
       </c>
-      <c r="U101" s="3" t="s">
+      <c r="V101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>219700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>131900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-180400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>180000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>98800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-431600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-443000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>112700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>333600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-157500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>208000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-179700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>273600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E7" s="2">
         <v>44290</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1085700</v>
+      </c>
+      <c r="E8" s="3">
         <v>781600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>759000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>819500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>838700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>704400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>654700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>582000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1058300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>494100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>519600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>566800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>526900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>487500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>479400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>503400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>696900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>456900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>380000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>438700</v>
+      </c>
+      <c r="E9" s="3">
         <v>320000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>309200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>360600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>367200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>298800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>271400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>237000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>446700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>206500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>210000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>233200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>219600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>217600</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>208500</v>
       </c>
       <c r="R9" s="3">
         <v>208500</v>
       </c>
       <c r="S9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="T9" s="3">
         <v>306300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>191900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>161000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E10" s="3">
         <v>461600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>449800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>458900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>471500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>405600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>383300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>345000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>611600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>287600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>309600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>333600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>307300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>269900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>270900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>294900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>390600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>265000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>219000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,70 +974,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E12" s="3">
         <v>100400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>94900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>94100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>85200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>86800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>77800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>158200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>76800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>74700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>77000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>75300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>74400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>72100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>77000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>82300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>76000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>70100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1086,132 +1102,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-7100</v>
+        <v>3700</v>
       </c>
       <c r="E14" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-14400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-27700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>37200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-7600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-4400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-4400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E15" s="3">
         <v>5500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>10600</v>
       </c>
       <c r="M15" s="3">
         <v>10600</v>
       </c>
       <c r="N15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="O15" s="3">
         <v>11100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1256,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>548600</v>
+        <v>698000</v>
       </c>
       <c r="E17" s="3">
+        <v>552700</v>
+      </c>
+      <c r="F17" s="3">
         <v>524900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>549800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>620700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>497600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>483000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>427100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>831200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>401000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>407300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>423300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>406500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>389900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>384800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>374200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>489100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>363100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>320800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>233000</v>
+        <v>387700</v>
       </c>
       <c r="E18" s="3">
+        <v>228900</v>
+      </c>
+      <c r="F18" s="3">
         <v>234100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>269700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>218000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>206800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>171700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>154900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>227100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>93100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>112300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>143500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>120400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>97600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>94600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>129200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>207800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>93800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>59200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1379,318 +1411,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-3000</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>12000</v>
       </c>
       <c r="M20" s="3">
         <v>12000</v>
       </c>
       <c r="N20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>421100</v>
+      </c>
+      <c r="E21" s="3">
         <v>263700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>261300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>256000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>234500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>192300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>192200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>295300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>134700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>154700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>175900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>153400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>126800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>130000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>164900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>240000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>124400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>85700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E22" s="3">
         <v>6000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5600</v>
       </c>
       <c r="O22" s="3">
         <v>5600</v>
       </c>
       <c r="P22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="Q22" s="3">
         <v>5400</v>
       </c>
       <c r="R22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S22" s="3">
         <v>10700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E23" s="3">
         <v>224000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>222900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>263700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>217300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>197100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>148900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>151700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>225200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>94000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>111100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>140800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>120000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>95800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>127400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>206900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>92000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>58900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E24" s="3">
         <v>18500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>41000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-15200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-7500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1751,132 +1799,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E26" s="3">
         <v>205500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>196300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>222700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>188900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>176200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>125100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>135900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>206500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>109100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>92600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>120000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>101000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>88700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>78400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>103400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>175000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>85200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>66300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E27" s="3">
         <v>205500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>196300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>222700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>188900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>176200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>125100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>135900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>206500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>109100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>92600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>120000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>101000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>88700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>78400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>103400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>175000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>85200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>66300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1937,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1969,23 +2029,23 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>51200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1999,8 +2059,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2189,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3000</v>
+        <v>-1900</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>4800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-12000</v>
       </c>
       <c r="M32" s="3">
         <v>-12000</v>
       </c>
       <c r="N32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E33" s="3">
         <v>205500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>196300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>222700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>188900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>176200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>125100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>135900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>206500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>109100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>143800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>120000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>101000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>87000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-105900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>103400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>175000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>85200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>66300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2384,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E35" s="3">
         <v>205500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>196300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>222700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>188900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>176200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>125100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>135900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>206500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>109100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>143800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>120000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>101000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>87000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-105900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>103400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>175000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>85200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>66300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E38" s="2">
         <v>44290</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,566 +2571,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>954400</v>
+      </c>
+      <c r="E41" s="3">
         <v>831100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>914100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>945200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>725400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>593500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>773900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>593900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>495100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>483700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>926800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>814000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>480400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>637900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>429800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>418700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>598300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>324700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>307900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>282100</v>
+      </c>
+      <c r="E42" s="3">
         <v>478300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>522300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>287800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>229800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>211000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>137300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>342500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>400200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>421100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>190100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>418400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>712300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>860500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1348000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1217800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>809300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>895600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>871000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>868500</v>
+      </c>
+      <c r="E43" s="3">
         <v>581500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>497500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>587200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>694500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>487400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>362400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>357900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>372200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>333800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>291300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>352500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>454100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>414000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>272800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>268100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>405900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>315000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>192400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>226100</v>
+      </c>
+      <c r="E44" s="3">
         <v>262500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>222200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>191300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>206100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>183000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>196700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>178200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>164500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>161300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>153500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>154700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>135600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>131900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>107500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>125200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>153600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>203300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>136000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>368300</v>
+      </c>
+      <c r="E45" s="3">
         <v>347700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>259300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>232100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>238200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>227700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>188600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>182000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>184800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>194000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>170800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>139800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>111800</v>
-      </c>
-      <c r="P45" s="3">
-        <v>112200</v>
       </c>
       <c r="Q45" s="3">
         <v>112200</v>
       </c>
       <c r="R45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="S45" s="3">
         <v>110300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>112700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>115600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>116500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2699500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2501100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2415400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2243600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2094000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1702600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1658900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1654600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1616800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1594000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1732500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1879400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1894200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2156400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2270300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2140100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2080000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1854200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1623800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>181600</v>
+      </c>
+      <c r="E47" s="3">
         <v>115600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>118000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>108300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>107000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>100500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>104500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>103600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>99000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>91900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>87700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>92000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>111400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>89300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>125900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>211900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>212500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>262100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>433800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>457200</v>
+      </c>
+      <c r="E48" s="3">
         <v>454000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>449400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>440900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>409800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>391000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>377800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>365200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>352200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>334000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>279800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>278100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>285300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>281300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>268400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>259100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>258000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>253500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>253800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>529700</v>
+      </c>
+      <c r="E49" s="3">
         <v>530500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>554800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>538900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>529600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>524300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>541900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>467300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>493400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>498900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>507300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>533000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>536800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>360100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>331100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>335000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>332800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>324900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>323700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3284,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E52" s="3">
         <v>118600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>114800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>104800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>108900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>102000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>104000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>108200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>110000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>97800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>99200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>104000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>108100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>113800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>143200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>146900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>147600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>127300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3414,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4000900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3719700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3652300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3436500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3249200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2820400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2787000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2698800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2671500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2616600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2706600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2882500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2931700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2995200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3109500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3089300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3030200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2842300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2762500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,81 +3531,85 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E57" s="3">
         <v>177500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>133700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>150400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>184200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>129600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>126600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>117900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>103400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>118800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>107900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>102700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>104000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>86400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>79400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>103500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>121400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>95400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>213800</v>
+      </c>
+      <c r="E58" s="3">
         <v>11100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>24</v>
@@ -3493,8 +3626,8 @@
       <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3526,256 +3659,271 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>615500</v>
+      </c>
+      <c r="E59" s="3">
         <v>498300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>533900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>521400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>545600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>384300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>412400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>375800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>363600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>323200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>375600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>350500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>349600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>287400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>367900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>351900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>335800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>271600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>277300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>985400</v>
+      </c>
+      <c r="E60" s="3">
         <v>686800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>671800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>729700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>514000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>539000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>493700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>467000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>442000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>476300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>458400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>452300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>391300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>454300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>431400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>439200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>393100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>372700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E61" s="3">
         <v>356900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>376800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>406200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>402300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>398500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>394700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>390900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>387200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>383600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>380000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>376400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>372900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>369400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>366000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>362600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>359200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>355900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>352700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>357300</v>
+      </c>
+      <c r="E62" s="3">
         <v>350200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>363900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>365000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>372600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>357300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>373100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>331500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>337900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>320900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>328000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>379900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>366600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>329500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>335600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>185500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>183100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>173400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>208500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3898,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4114,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1486300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1393900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1441500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1443000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1504600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1269700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1306900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1216200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1192100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1146400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1184300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1214700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1191800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1090200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1155900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>979400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>981600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>922400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>933800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4464,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E72" s="3">
         <v>529100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>387400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>207700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-164300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-241900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-226400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-222500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-215600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-158200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>74300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>216100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>272000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>438200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>405000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>300300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>230300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4724,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2514600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2325800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2210800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1993500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1744600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1550700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1480200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1482600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1479400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1470200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1522400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1667800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1739900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1905000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1953600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2109900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2048600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1919900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1828700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4854,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E80" s="2">
         <v>44290</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E81" s="3">
         <v>205500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>196300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>222700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>188900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>176200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>125100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>135900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>206500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>109100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>143800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>120000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>101000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>87000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-105900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>103400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>175000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>85200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>66300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5016,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E83" s="3">
         <v>33700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5404,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>206300</v>
+      </c>
+      <c r="E89" s="3">
         <v>38100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>260400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>342500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>222900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>216300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>199100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>163300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>186400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>240600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>131900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-81900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>147500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>309800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>230300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-61100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>37200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5496,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-62900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-38000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5689,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E94" s="3">
         <v>4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-277200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-119400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-63000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-110200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>110200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>22300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-289200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-261000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>204000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>300500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-44300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>462900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-74500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-428400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>113700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>126400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-372300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,16 +5781,17 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-16600</v>
       </c>
       <c r="F96" s="3">
         <v>-16600</v>
@@ -5567,52 +5800,55 @@
         <v>-16600</v>
       </c>
       <c r="H96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-16700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-15000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-15300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-31000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-16600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-17100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-13700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-13800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-12100</v>
       </c>
       <c r="V96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6039,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-169200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-126700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-113900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-146400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-122700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-305200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-199800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-277400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-207900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-243700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-174400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-62200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-70500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-50000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>347700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2500</v>
       </c>
-      <c r="V101" s="3" t="s">
+      <c r="W101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-83000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>219700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>131900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-180400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>180000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>98800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-431600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-443000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>112700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>333600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-157500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>208000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-179700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>273600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>TER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E7" s="2">
         <v>44381</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44290</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>950500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1085700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>781600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>759000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>819500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>838700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>704400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>654700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>582000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1058300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>494100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>519600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>566800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>526900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>487500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>479400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>503400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>696900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>456900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>380000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>379500</v>
+      </c>
+      <c r="E9" s="3">
         <v>438700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>320000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>309200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>360600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>367200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>298800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>271400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>237000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>446700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>206500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>210000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>233200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>219600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>217600</v>
-      </c>
-      <c r="R9" s="3">
-        <v>208500</v>
       </c>
       <c r="S9" s="3">
         <v>208500</v>
       </c>
       <c r="T9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="U9" s="3">
         <v>306300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>191900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>161000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E10" s="3">
         <v>647000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>461600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>449800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>458900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>471500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>405600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>383300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>345000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>611600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>287600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>309600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>333600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>307300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>269900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>270900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>294900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>390600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>265000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>219000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,73 +987,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E12" s="3">
         <v>110000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>94900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>94100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>85200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>86800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>77800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>158200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>76800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>74700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>77000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>75300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>74400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>72100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>77000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>82300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>76000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>70100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,73 +1121,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-3100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-14400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-27700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>37200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-7600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-5300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-4400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1179,64 +1201,67 @@
         <v>5400</v>
       </c>
       <c r="E15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F15" s="3">
         <v>5500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>10600</v>
       </c>
       <c r="N15" s="3">
         <v>10600</v>
       </c>
       <c r="O15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="P15" s="3">
         <v>11100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>648300</v>
+      </c>
+      <c r="E17" s="3">
         <v>698000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>552700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>524900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>549800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>620700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>497600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>483000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>427100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>831200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>401000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>407300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>423300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>406500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>389900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>384800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>374200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>489100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>363100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>320800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>302200</v>
+      </c>
+      <c r="E18" s="3">
         <v>387700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>228900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>234100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>269700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>218000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>206800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>171700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>154900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>227100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>93100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>112300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>143500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>120400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>97600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>94600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>129200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>207800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>93800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>59200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1412,333 +1444,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>12000</v>
       </c>
       <c r="N20" s="3">
         <v>12000</v>
       </c>
       <c r="O20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>331800</v>
+      </c>
+      <c r="E21" s="3">
         <v>421100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>263700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>261300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>256000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>234500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>192300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>192200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>295300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>134700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>154700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>175900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>153400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>126800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>130000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>164900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>240000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>124400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>85700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>5600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5600</v>
       </c>
       <c r="P22" s="3">
         <v>5600</v>
       </c>
       <c r="Q22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="R22" s="3">
         <v>5400</v>
       </c>
       <c r="S22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T22" s="3">
         <v>10700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>297800</v>
+      </c>
+      <c r="E23" s="3">
         <v>384000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>224000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>222900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>263700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>217300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>197100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>148900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>151700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>225200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>94000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>111100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>140800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>120000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>95800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>98100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>127400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>206900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>92000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>58900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E24" s="3">
         <v>55700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>26600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>41000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-15200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>31900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-7500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1802,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>256700</v>
+      </c>
+      <c r="E26" s="3">
         <v>328300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>205500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>196300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>222700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>188900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>176200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>125100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>135900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>206500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>109100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>92600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>120000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>101000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>88700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>78400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>103400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>175000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>85200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>66300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>256700</v>
+      </c>
+      <c r="E27" s="3">
         <v>328300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>205500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>196300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>222700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>188900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>176200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>125100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>135900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>206500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>109100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>92600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>120000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>101000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>88700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>78400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>103400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>175000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>85200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>66300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1997,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2032,23 +2092,23 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>51200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2062,8 +2122,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-12000</v>
       </c>
       <c r="N32" s="3">
         <v>-12000</v>
       </c>
       <c r="O32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>256700</v>
+      </c>
+      <c r="E33" s="3">
         <v>328300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>205500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>196300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>222700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>188900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>176200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>125100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>135900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>206500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>109100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>143800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>120000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>101000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>87000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-105900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>103400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>175000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>85200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>66300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>256700</v>
+      </c>
+      <c r="E35" s="3">
         <v>328300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>205500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>196300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>222700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>188900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>176200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>125100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>135900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>206500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>109100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>143800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>120000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>101000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>87000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-105900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>103400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>175000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>85200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>66300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E38" s="2">
         <v>44381</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44290</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,593 +2657,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1079500</v>
+      </c>
+      <c r="E41" s="3">
         <v>954400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>831100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>914100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>945200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>725400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>593500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>773900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>593900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>495100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>483700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>926800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>814000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>480400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>637900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>429800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>418700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>598300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>324700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>307900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>233400</v>
+      </c>
+      <c r="E42" s="3">
         <v>282100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>478300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>522300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>287800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>229800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>211000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>137300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>342500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>400200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>421100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>190100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>418400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>712300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>860500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1348000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1217800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>809300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>895600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>871000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>597100</v>
+      </c>
+      <c r="E43" s="3">
         <v>868500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>581500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>497500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>587200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>694500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>487400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>362400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>357900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>372200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>333800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>291300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>352500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>454100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>414000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>272800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>268100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>405900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>315000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>192400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E44" s="3">
         <v>226100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>262500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>222200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>191300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>206100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>183000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>196700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>178200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>164500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>161300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>153500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>154700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>135600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>131900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>107500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>125200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>153600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>203300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>136000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E45" s="3">
         <v>368300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>347700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>259300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>232100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>238200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>227700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>188600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>182000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>184800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>194000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>170800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>139800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>111800</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>112200</v>
       </c>
       <c r="R45" s="3">
         <v>112200</v>
       </c>
       <c r="S45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="T45" s="3">
         <v>110300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>112700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>115600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>116500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2521200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2699500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2501100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2415400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2243600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2094000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1702600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1658900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1654600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1616800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1594000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1732500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1879400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1894200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2156400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2270300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2140100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2080000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1854200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1623800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E47" s="3">
         <v>181600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>115600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>118000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>108300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>107000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>104500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>103600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>99000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>91900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>87700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>92000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>111400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>89300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>125900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>211900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>212500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>262100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>433800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>452200</v>
+      </c>
+      <c r="E48" s="3">
         <v>457200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>454000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>449400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>440900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>409800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>391000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>377800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>365200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>352200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>334000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>279800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>278100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>285300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>281300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>268400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>259100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>258000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>253500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>253800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>515100</v>
+      </c>
+      <c r="E49" s="3">
         <v>529700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>530500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>554800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>538900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>529600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>524300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>541900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>467300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>493400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>498900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>507300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>533000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>536800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>360100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>331100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>335000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>332800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>324900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>323700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,73 +3403,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E52" s="3">
         <v>132900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>118600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>114800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>104800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>108900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>102000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>104000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>108200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>110000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>97800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>99200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>104000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>108100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>113800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>143200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>146900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>147600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>127300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3762200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4000900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3719700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3652300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3436500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3249200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2820400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2787000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2698800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2671500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2616600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2706600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2882500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2931700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2995200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3109500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3089300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3030200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2842300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2762500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,87 +3661,91 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>154900</v>
+      </c>
+      <c r="E57" s="3">
         <v>156100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>177500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>133700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>150400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>184200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>129600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>126600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>117900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>103400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>118800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>107900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>102700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>104000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>86400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>79400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>103500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>121400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>95400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E58" s="3">
         <v>213800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
@@ -3629,8 +3762,8 @@
       <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3662,268 +3795,283 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>566500</v>
+      </c>
+      <c r="E59" s="3">
         <v>615500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>498300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>533900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>521400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>545600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>384300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>412400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>375800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>363600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>323200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>375600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>350500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>349600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>287400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>367900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>351900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>335800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>271600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>277300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>753600</v>
+      </c>
+      <c r="E60" s="3">
         <v>985400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>686800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>671800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>729700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>514000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>539000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>493700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>467000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>442000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>476300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>458400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>452300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>391300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>454300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>431400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>439200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>393100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>372700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E61" s="3">
         <v>143600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>356900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>376800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>406200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>402300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>398500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>394700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>390900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>387200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>383600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>380000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>376400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>372900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>369400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>366000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>362600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>359200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>355900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>352700</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>355400</v>
+      </c>
+      <c r="E62" s="3">
         <v>357300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>350200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>363900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>365000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>372600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>357300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>373100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>331500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>337900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>320900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>328000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>379900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>366600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>329500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>335600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>185500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>183100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>173400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>208500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4052,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1221800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1486300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1393900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1441500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1443000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1504600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1269700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1306900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1216200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1192100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1146400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1184300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1214700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1191800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1090200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1155900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>979400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>981600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>922400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>933800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>712400</v>
+      </c>
+      <c r="E72" s="3">
         <v>685000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>529100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>387400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>207700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-164300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-241900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-226400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-222500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-215600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-158200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>74300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>216100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>272000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>438200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>405000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>300300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>230300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2540400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2514600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2325800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2210800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1993500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1744600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1550700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1480200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1482600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1479400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1470200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1522400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1667800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1739900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1905000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1953600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2109900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2048600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1919900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1828700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E80" s="2">
         <v>44381</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44290</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>256700</v>
+      </c>
+      <c r="E81" s="3">
         <v>328300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>205500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>196300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>222700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>188900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>176200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>125100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>135900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>206500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>109100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>143800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>120000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>101000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>87000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-105900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>103400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>175000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>85200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>66300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E83" s="3">
         <v>31500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>58900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>522700</v>
+      </c>
+      <c r="E89" s="3">
         <v>206300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>38100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>260400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>342500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>222900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>216300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>199100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>163300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>186400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>240600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>131900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-81900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>147500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>309800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>230300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-61100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>37200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,73 +5716,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-39300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-62900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-38000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E94" s="3">
         <v>87600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-277200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-119400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-63000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-110200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>110200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>22300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-289200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-261000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>204000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>300500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-44300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>462900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-74500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-428400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>113700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>126400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-372300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,19 +6014,20 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-16600</v>
       </c>
       <c r="G96" s="3">
         <v>-16600</v>
@@ -5803,52 +6036,55 @@
         <v>-16600</v>
       </c>
       <c r="I96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="J96" s="3">
         <v>-16700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-15000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-31000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-15600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-16000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-16600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-17600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-13700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-13900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-12100</v>
       </c>
       <c r="W96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,199 +6284,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-461400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-169200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-126700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-113900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-146400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-122700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-305200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-199800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-277400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-207900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-243700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-174400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-62500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-62200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-70500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-50000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>347700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2500</v>
       </c>
-      <c r="W101" s="3" t="s">
+      <c r="X101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E102" s="3">
         <v>123300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-83000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>219700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>131900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-180400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>180000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>98800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-431600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-443000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>112700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>333600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-157500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>208000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-179700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>273600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>9900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,318 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44472</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44381</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44290</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>885000</v>
+      </c>
+      <c r="E8" s="3">
         <v>950500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1085700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>781600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>759000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>819500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>838700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>704400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>654700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>582000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1058300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>494100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>519600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>566800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>526900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>487500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>479400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>503400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>696900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>456900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>380000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E9" s="3">
         <v>379500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>438700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>320000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>309200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>360600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>367200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>298800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>271400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>237000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>446700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>206500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>210000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>233200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>219600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>217600</v>
-      </c>
-      <c r="S9" s="3">
-        <v>208500</v>
       </c>
       <c r="T9" s="3">
         <v>208500</v>
       </c>
       <c r="U9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="V9" s="3">
         <v>306300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>191900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>161000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E10" s="3">
         <v>571000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>647000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>461600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>449800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>458900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>471500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>405600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>383300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>345000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>611600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>287600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>309600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>333600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>307300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>269900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>270900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>294900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>390600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>265000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>219000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,76 +1001,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E12" s="3">
         <v>107200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>110000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>94900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>94100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>85200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>86800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>77800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>158200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>76800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>74700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>77000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>75300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>74400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>72100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>77000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>82300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>76000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>70100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,144 +1141,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E14" s="3">
         <v>21400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-3100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-14400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-27700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>37200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-7600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-5300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-4400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="E15" s="3">
         <v>5400</v>
       </c>
       <c r="F15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G15" s="3">
         <v>5500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>10600</v>
       </c>
       <c r="O15" s="3">
         <v>10600</v>
       </c>
       <c r="P15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Q15" s="3">
         <v>11100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1309,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>632000</v>
+      </c>
+      <c r="E17" s="3">
         <v>648300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>698000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>552700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>524900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>549800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>620700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>497600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>483000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>427100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>831200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>401000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>407300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>423300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>406500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>389900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>384800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>374200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>489100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>363100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>320800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E18" s="3">
         <v>302200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>387700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>228900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>234100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>269700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>218000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>206800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>171700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>154900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>227100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>93100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>112300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>143500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>120400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>97600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>94600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>129200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>207800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>93800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>59200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1445,348 +1478,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>12000</v>
       </c>
       <c r="O20" s="3">
         <v>12000</v>
       </c>
       <c r="P20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>287600</v>
+      </c>
+      <c r="E21" s="3">
         <v>331800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>421100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>263700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>261300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>256000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>234500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>192300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>192200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>295300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>134700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>154700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>175900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>153400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>126800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>130000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>164900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>240000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>124400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>85700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5600</v>
       </c>
       <c r="Q22" s="3">
         <v>5600</v>
       </c>
       <c r="R22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="S22" s="3">
         <v>5400</v>
       </c>
       <c r="T22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U22" s="3">
         <v>10700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>255200</v>
+      </c>
+      <c r="E23" s="3">
         <v>297800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>384000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>224000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>222900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>263700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>217300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>197100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>148900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>151700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>225200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>94000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>111100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>140800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>120000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>95800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>98100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>127400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>206900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>92000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>58900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E24" s="3">
         <v>41000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>26600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>41000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-15200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>31900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-7500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1853,144 +1902,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E26" s="3">
         <v>256700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>328300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>205500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>196300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>222700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>188900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>176200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>125100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>135900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>206500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>109100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>92600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>120000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>101000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>88700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>78400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>103400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>175000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>85200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>66300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E27" s="3">
         <v>256700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>328300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>205500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>196300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>222700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>188900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>176200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>125100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>135900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>206500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>109100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>92600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>120000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>101000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>88700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>78400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>103400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>175000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>85200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>66300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2057,8 +2115,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2095,23 +2156,23 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>51200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2125,8 +2186,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2261,144 +2328,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-12000</v>
       </c>
       <c r="O32" s="3">
         <v>-12000</v>
       </c>
       <c r="P32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E33" s="3">
         <v>256700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>328300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>205500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>196300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>222700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>188900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>176200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>125100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>135900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>206500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>109100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>143800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>120000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>101000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>87000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-105900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>103400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>175000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>85200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>66300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2465,149 +2541,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E35" s="3">
         <v>256700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>328300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>205500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>196300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>222700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>188900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>176200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>125100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>135900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>206500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>109100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>143800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>120000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>101000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>87000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-105900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>103400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>175000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>85200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>66300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44472</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44381</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44290</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2658,620 +2744,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1122200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1079500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>954400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>831100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>914100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>945200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>725400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>593500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>773900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>593900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>495100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>483700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>926800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>814000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>480400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>637900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>429800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>418700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>598300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>324700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>307900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>244200</v>
+      </c>
+      <c r="E42" s="3">
         <v>233400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>282100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>478300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>522300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>287800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>229800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>211000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>137300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>342500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>400200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>421100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>190100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>418400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>712300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>860500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1348000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1217800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>809300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>895600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>871000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>550700</v>
+      </c>
+      <c r="E43" s="3">
         <v>597100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>868500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>581500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>497500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>587200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>694500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>487400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>362400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>357900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>372200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>333800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>291300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>352500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>454100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>414000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>272800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>268100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>405900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>315000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>192400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>243300</v>
+      </c>
+      <c r="E44" s="3">
         <v>224200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>226100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>262500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>222200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>191300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>206100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>183000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>196700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>178200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>164500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>161300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>153500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>154700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>135600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>131900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>107500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>125200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>153600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>203300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>136000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>415700</v>
+      </c>
+      <c r="E45" s="3">
         <v>387000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>368300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>347700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>259300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>232100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>238200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>227700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>188600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>182000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>184800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>194000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>170800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>139800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>111800</v>
-      </c>
-      <c r="R45" s="3">
-        <v>112200</v>
       </c>
       <c r="S45" s="3">
         <v>112200</v>
       </c>
       <c r="T45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="U45" s="3">
         <v>110300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>112700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>115600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>116500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2576200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2521200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2699500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2501100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2415400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2243600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2094000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1702600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1658900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1654600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1616800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1594000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1732500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1879400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1894200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2156400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2270300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2140100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2080000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1854200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1623800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E47" s="3">
         <v>136700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>181600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>115600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>118000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>108300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>107000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>104500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>103600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>99000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>91900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>87700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>92000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>111400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>89300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>125900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>211900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>212500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>262100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>433800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E48" s="3">
         <v>452200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>457200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>454000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>449400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>440900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>409800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>391000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>377800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>365200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>352200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>334000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>279800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>278100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>285300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>281300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>268400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>259100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>258000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>253500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>253800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>501700</v>
+      </c>
+      <c r="E49" s="3">
         <v>515100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>529700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>530500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>554800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>538900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>529600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>524300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>541900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>467300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>493400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>498900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>507300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>533000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>536800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>360100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>331100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>335000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>332800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>324900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>323700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3338,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3406,76 +3523,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E52" s="3">
         <v>137100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>132900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>118600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>114800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>104800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>108900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>102000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>104000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>108200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>110000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>97800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>99200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>104000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>108100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>113800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>143200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>146900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>147600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>127300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3542,76 +3665,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3809400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3762200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4000900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3719700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3652300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3436500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3249200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2820400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2787000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2698800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2671500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2616600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2706600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2882500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2931700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2995200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3109500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3089300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3030200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2842300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2762500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3636,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3662,93 +3792,97 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E57" s="3">
         <v>154900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>156100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>177500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>133700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>150400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>184200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>129600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>126600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>117900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>103400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>118800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>107900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>102700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>104000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>86400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>79400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>103500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>121400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>95400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E58" s="3">
         <v>32200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>213800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>33300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>24</v>
@@ -3765,8 +3899,8 @@
       <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3798,280 +3932,295 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>632800</v>
+      </c>
+      <c r="E59" s="3">
         <v>566500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>615500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>498300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>533900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>521400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>545600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>384300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>412400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>375800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>363600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>323200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>375600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>350500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>349600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>287400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>367900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>351900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>335800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>271600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>277300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>805100</v>
+      </c>
+      <c r="E60" s="3">
         <v>753600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>985400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>686800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>671800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>729700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>514000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>539000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>493700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>467000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>442000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>476300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>458400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>452300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>391300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>454300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>431400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>439200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>393100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>372700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E61" s="3">
         <v>112800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>143600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>356900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>376800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>406200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>402300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>398500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>394700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>390900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>387200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>383600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>380000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>376400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>372900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>369400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>366000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>362600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>359200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>355900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>352700</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>351100</v>
+      </c>
+      <c r="E62" s="3">
         <v>355400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>357300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>350200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>363900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>365000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>372600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>357300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>373100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>331500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>337900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>320900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>328000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>379900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>366600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>329500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>335600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>185500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>183100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>173400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>208500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4138,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4206,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4274,76 +4429,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1245500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1221800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1486300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1393900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1441500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1443000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1504600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1269700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1306900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1216200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1192100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1146400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1184300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1214700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1191800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1090200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1155900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>979400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>981600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>922400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>933800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4368,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4436,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4504,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4572,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4640,76 +4811,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>736600</v>
+      </c>
+      <c r="E72" s="3">
         <v>712400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>685000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>529100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>387400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>207700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-164300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-241900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-226400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-222500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-215600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-158200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>74300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>216100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>272000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>438200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>405000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>300300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>230300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4776,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4844,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4912,76 +5095,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2564000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2540400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2514600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2325800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2210800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1993500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1744600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1550700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1480200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1482600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1479400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1470200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1522400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1667800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1739900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1905000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1953600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2109900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2048600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1919900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1828700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5048,149 +5237,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44472</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44381</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44290</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E81" s="3">
         <v>256700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>328300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>205500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>196300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>222700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>188900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>176200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>125100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>135900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>206500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>109100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>143800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>120000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>101000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>87000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-105900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>103400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>175000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>85200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>66300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5215,76 +5413,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E83" s="3">
         <v>30300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>58900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>26700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5351,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5419,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5487,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5555,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5623,76 +5837,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>331300</v>
+      </c>
+      <c r="E89" s="3">
         <v>522700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>206300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>38100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>260400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>342500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>222900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>43100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>216300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>199100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>163300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>186400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>240600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>131900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-81900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>147500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>309800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>230300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-61100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>37200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5717,76 +5937,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-39300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-62900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-47300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-38000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5921,76 +6148,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E94" s="3">
         <v>63800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>87600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-277200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-119400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-63000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-110200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>110200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>22300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-289200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-261000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>204000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>300500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-44300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>462900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-74500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-428400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>113700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>126400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-372300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6015,22 +6248,23 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-16600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-16600</v>
       </c>
       <c r="H96" s="3">
         <v>-16600</v>
@@ -6039,52 +6273,55 @@
         <v>-16600</v>
       </c>
       <c r="J96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-16700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-31000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-15600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-16000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-17100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-17600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-13800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-13900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-12100</v>
       </c>
       <c r="X96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6151,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6219,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6287,208 +6530,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-251200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-461400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-169200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-126700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-113900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-146400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-122700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-305200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-199800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-277400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-207900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-243700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-174400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-62500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-62200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-70500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-50000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>347700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2500</v>
       </c>
-      <c r="X101" s="3" t="s">
+      <c r="Y101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E102" s="3">
         <v>125000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>123300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-83000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>219700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>131900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-180400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>180000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>98800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-431600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-443000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>112700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>333600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-157500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>208000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-179700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>273600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>16900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>9900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TER</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,318 +665,331 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44472</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44381</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44290</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42918</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42827</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>755400</v>
+      </c>
+      <c r="E8" s="3">
         <v>885000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>950500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1085700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>781600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>759000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>819500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>838700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>704400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>654700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>582000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1058300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>494100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>519600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>566800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>526900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>487500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>479400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>503400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>696900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>456900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>380000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300400</v>
+      </c>
+      <c r="E9" s="3">
         <v>358000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>379500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>438700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>320000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>309200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>360600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>367200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>298800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>271400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>237000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>446700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>206500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>210000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>233200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>219600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>217600</v>
-      </c>
-      <c r="T9" s="3">
-        <v>208500</v>
       </c>
       <c r="U9" s="3">
         <v>208500</v>
       </c>
       <c r="V9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="W9" s="3">
         <v>306300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>191900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>161000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E10" s="3">
         <v>527000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>571000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>647000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>461600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>449800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>458900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>471500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>405600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>383300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>345000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>611600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>287600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>309600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>333600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>307300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>269900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>270900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>294900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>390600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>265000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>219000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,79 +1015,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E12" s="3">
         <v>110000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>107200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>110000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>94900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>94100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>85200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>86800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>77800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>158200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>76800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>74700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>77000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>75300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>74400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>72100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>77000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>82300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>76000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>70100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,150 +1161,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E14" s="3">
         <v>16200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-14400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-27700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>37200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-7600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-4400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-5300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-4400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E15" s="3">
         <v>5200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5400</v>
       </c>
       <c r="F15" s="3">
         <v>5400</v>
       </c>
       <c r="G15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H15" s="3">
         <v>5500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>10600</v>
       </c>
       <c r="P15" s="3">
         <v>10600</v>
       </c>
       <c r="Q15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="R15" s="3">
         <v>11100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>7900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>569500</v>
+      </c>
+      <c r="E17" s="3">
         <v>632000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>648300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>698000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>552700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>524900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>549800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>620700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>497600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>483000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>427100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>831200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>401000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>407300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>423300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>406500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>389900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>384800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>374200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>489100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>363100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>320800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E18" s="3">
         <v>253000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>302200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>387700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>228900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>234100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>269700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>218000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>206800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>171700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>154900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>227100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>93100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>112300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>143500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>120400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>97600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>94600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>129200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>207800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>93800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>59200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1479,363 +1512,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3">
         <v>4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>12000</v>
       </c>
       <c r="P20" s="3">
         <v>12000</v>
       </c>
       <c r="Q20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>209100</v>
+      </c>
+      <c r="E21" s="3">
         <v>287600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>331800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>421100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>263700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>261300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>256000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>234500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>192300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>192200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>295300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>134700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>154700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>175900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>153400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>126800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>130000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>164900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>240000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>124400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>85700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>5600</v>
       </c>
       <c r="R22" s="3">
         <v>5600</v>
       </c>
       <c r="S22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="T22" s="3">
         <v>5400</v>
       </c>
       <c r="U22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V22" s="3">
         <v>10700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>180400</v>
+      </c>
+      <c r="E23" s="3">
         <v>255200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>297800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>384000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>224000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>222900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>263700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>217300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>197100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>148900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>151700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>225200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>94000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>111100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>140800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>120000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>95800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>98100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>127400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>206900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>92000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>58900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E24" s="3">
         <v>31100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>41000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>26600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>41000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-15200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>31900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1905,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E26" s="3">
         <v>224000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>256700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>328300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>205500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>196300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>222700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>188900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>176200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>125100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>135900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>206500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>109100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>92600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>120000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>101000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>88700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>78400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>103400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>175000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>85200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>66300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E27" s="3">
         <v>224000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>256700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>328300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>205500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>196300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>222700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>188900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>176200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>125100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>135900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>206500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>109100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>92600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>120000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>101000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>88700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>78400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>103400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>175000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>85200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>66300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2118,31 +2176,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2159,23 +2220,23 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>51200</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2189,8 +2250,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-12000</v>
       </c>
       <c r="P32" s="3">
         <v>-12000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E33" s="3">
         <v>224000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>256700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>328300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>205500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>196300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>222700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>188900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>176200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>125100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>135900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>206500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>109100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>143800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>120000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>101000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>87000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-105900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>103400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>175000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>85200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>66300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2544,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E35" s="3">
         <v>224000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>256700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>328300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>205500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>196300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>222700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>188900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>176200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>125100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>135900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>206500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>109100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>143800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>120000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>101000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>87000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-105900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>103400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>175000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>85200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>66300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44472</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44381</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44290</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42918</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42827</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,647 +2831,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>794600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1122200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1079500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>954400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>831100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>914100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>945200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>725400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>593500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>773900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>593900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>495100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>483700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>926800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>814000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>480400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>637900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>429800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>418700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>598300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>324700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>307900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E42" s="3">
         <v>244200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>233400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>282100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>478300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>522300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>287800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>229800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>211000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>137300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>342500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>400200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>421100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>190100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>418400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>712300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>860500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1348000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1217800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>809300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>895600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>871000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>546900</v>
+      </c>
+      <c r="E43" s="3">
         <v>550700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>597100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>868500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>581500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>497500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>587200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>694500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>487400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>362400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>357900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>372200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>333800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>291300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>352500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>454100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>414000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>272800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>268100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>405900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>315000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>192400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>259300</v>
+      </c>
+      <c r="E44" s="3">
         <v>243300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>224200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>226100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>262500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>222200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>191300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>206100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>183000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>196700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>178200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>164500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>161300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>153500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>154700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>135600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>131900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>107500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>125200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>153600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>203300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>136000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>491500</v>
+      </c>
+      <c r="E45" s="3">
         <v>415700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>387000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>368300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>347700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>259300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>232100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>238200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>227700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>188600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>182000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>184800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>194000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>170800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>139800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>111800</v>
-      </c>
-      <c r="S45" s="3">
-        <v>112200</v>
       </c>
       <c r="T45" s="3">
         <v>112200</v>
       </c>
       <c r="U45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="V45" s="3">
         <v>110300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>112700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>115600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>116500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2374400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2576200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2521200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2699500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2501100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2415400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2243600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2094000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1702600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1658900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1654600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1616800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1594000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1732500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1879400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1894200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2156400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2270300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2140100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2080000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1854200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1623800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E47" s="3">
         <v>133900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>136700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>181600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>115600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>118000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>108300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>107000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>104500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>103600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>99000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>91900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>87700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>92000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>111400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>89300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>125900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>211900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>212500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>262100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>433800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>467200</v>
+      </c>
+      <c r="E48" s="3">
         <v>456000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>452200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>457200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>454000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>449400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>440900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>409800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>391000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>377800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>365200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>352200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>334000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>279800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>278100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>285300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>281300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>268400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>259100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>258000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>253500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>253800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>489700</v>
+      </c>
+      <c r="E49" s="3">
         <v>501700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>515100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>529700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>530500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>554800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>538900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>529600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>524300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>541900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>467300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>493400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>498900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>507300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>533000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>536800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>360100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>331100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>335000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>332800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>324900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>323700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E52" s="3">
         <v>141600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>137100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>132900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>118600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>114800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>104800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>108900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>102000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>104000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>108200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>110000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>97800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>99200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>104000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>108100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>113800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>143200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>146900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>147600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>127300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3609200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3809400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3762200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4000900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3719700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3652300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3436500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3249200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2820400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2787000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2698800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2671500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2616600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2706600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2882500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2931700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2995200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3109500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3089300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3030200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2842300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2762500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,99 +3923,103 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E57" s="3">
         <v>153100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>154900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>156100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>177500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>133700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>150400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>184200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>129600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>126600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>117900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>103400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>118800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>107900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>102700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>104000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>86400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>79400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>103500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>121400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>95400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E58" s="3">
         <v>19200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>32200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>213800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>24</v>
@@ -3902,8 +4036,8 @@
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3935,292 +4069,307 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>535200</v>
+      </c>
+      <c r="E59" s="3">
         <v>632800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>566500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>615500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>498300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>533900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>521400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>545600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>384300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>412400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>375800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>363600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>323200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>375600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>350500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>349600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>287400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>367900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>351900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>335800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>271600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>277300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>712200</v>
+      </c>
+      <c r="E60" s="3">
         <v>805100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>753600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>985400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>686800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>671800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>729700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>514000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>539000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>493700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>467000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>442000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>476300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>458400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>452300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>391300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>454300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>431400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>439200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>393100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>372700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E61" s="3">
         <v>89200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>112800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>143600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>356900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>376800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>406200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>402300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>398500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>394700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>390900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>387200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>383600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>380000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>376400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>372900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>369400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>366000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>362600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>359200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>355900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>352700</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E62" s="3">
         <v>351100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>355400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>357300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>350200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>363900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>365000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>372600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>357300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>373100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>331500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>337900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>320900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>328000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>379900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>366600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>329500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>335600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>185500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>183100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>173400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>208500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4361,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1134600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1245500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1221800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1486300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1393900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1441500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1443000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1504600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1269700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1306900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1216200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1192100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1146400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1184300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1214700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1191800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1090200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1155900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>979400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>981600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>922400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>933800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>762200</v>
+      </c>
+      <c r="E72" s="3">
         <v>736600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>712400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>685000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>529100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>387400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>207700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-164300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-241900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-226400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-222500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-215600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-158200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>74300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>216100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>272000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>438200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>405000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>300300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>230300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2474500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2564000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2540400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2514600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2325800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2210800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1993500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1744600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1550700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1480200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1482600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1479400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1470200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1522400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1667800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1739900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1905000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1953600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2109900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2048600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1919900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1828700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44472</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44381</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44290</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42918</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42827</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E81" s="3">
         <v>224000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>256700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>328300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>205500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>196300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>222700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>188900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>176200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>125100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>135900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>206500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>109100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>143800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>120000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>101000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>87000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-105900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>103400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>175000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>85200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>66300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E83" s="3">
         <v>30000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>58900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>26500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>26700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>27200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>25300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>331300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>522700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>206300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>38100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>260400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>342500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>222900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>216300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>199100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>163300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>186400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>240600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>131900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-81900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>147500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>309800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>230300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-61100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>37200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-62900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-59000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>63800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>87600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-277200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-119400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-63000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-110200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>110200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>22300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-289200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-261000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>204000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>300500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-44300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>462900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-74500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-428400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>113700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>126400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-372300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,25 +6482,26 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-16400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-16600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-16600</v>
       </c>
       <c r="I96" s="3">
         <v>-16600</v>
@@ -6276,52 +6510,55 @@
         <v>-16600</v>
       </c>
       <c r="K96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="L96" s="3">
         <v>-16700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-15300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-31000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-15600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-16600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-17100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-17600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-13700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-13800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-13900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-12100</v>
       </c>
       <c r="Y96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-254600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-251200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-461400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-169200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-126700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-113900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-146400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-122700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-305200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-199800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-277400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-207900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-243700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-174400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-62500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-62200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-70500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-50000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>347700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y101" s="3" t="s">
+      <c r="Z101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-327600</v>
+      </c>
+      <c r="E102" s="3">
         <v>42700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>125000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>123300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-83000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>219700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>131900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-180400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>180000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>98800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-431600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-443000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>112700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>333600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-157500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>208000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-179700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>273600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>16900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>9900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,343 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
         <v>44654</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44472</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44381</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44290</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>840800</v>
+      </c>
+      <c r="E8" s="3">
         <v>755400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>885000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>950500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1085700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>781600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>759000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>819500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>838700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>704400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>654700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>582000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1058300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>494100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>519600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>566800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>526900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>487500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>479400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>503400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>696900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>456900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>380000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>334400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>358000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>379500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>438700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>320000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>309200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>360600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>367200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>298800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>271400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>237000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>446700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>206500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>210000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>233200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>219600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>217600</v>
-      </c>
-      <c r="U9" s="3">
-        <v>208500</v>
       </c>
       <c r="V9" s="3">
         <v>208500</v>
       </c>
       <c r="W9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="X9" s="3">
         <v>306300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>191900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>161000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>506400</v>
+      </c>
+      <c r="E10" s="3">
         <v>455000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>527000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>571000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>647000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>461600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>449800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>458900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>471500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>405600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>383300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>345000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>611600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>287600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>309600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>333600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>307300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>269900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>270900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>294900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>390600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>265000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>219000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,82 +1028,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E12" s="3">
         <v>108100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>110000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>107200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>110000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>94900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>94100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>85200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>86800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>77800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>158200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>76800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>74700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>77000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>75300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>74400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>72100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>77000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>82300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>76000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>70100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1164,156 +1180,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>15700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-14400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-27700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>37200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-7600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-5300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-4400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E15" s="3">
         <v>5100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5400</v>
       </c>
       <c r="G15" s="3">
         <v>5400</v>
       </c>
       <c r="H15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I15" s="3">
         <v>5500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>10600</v>
       </c>
       <c r="Q15" s="3">
         <v>10600</v>
       </c>
       <c r="R15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="S15" s="3">
         <v>11100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>7900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>592800</v>
+      </c>
+      <c r="E17" s="3">
         <v>569500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>632000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>648300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>698000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>552700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>524900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>549800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>620700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>497600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>483000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>427100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>831200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>401000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>407300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>423300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>406500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>389900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>384800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>374200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>489100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>363100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>320800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E18" s="3">
         <v>185900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>253000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>302200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>387700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>228900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>234100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>269700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>218000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>206800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>171700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>154900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>227100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>93100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>112300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>143500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>120400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>97600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>94600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>129200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>207800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>93800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>59200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1513,378 +1545,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>12000</v>
       </c>
       <c r="Q20" s="3">
         <v>12000</v>
       </c>
       <c r="R20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>266300</v>
+      </c>
+      <c r="E21" s="3">
         <v>209100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>287600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>331800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>421100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>263700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>261300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>256000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>234500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>192300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>192200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>295300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>134700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>154700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>175900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>153400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>126800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>130000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>164900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>240000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>124400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>85700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>5600</v>
       </c>
       <c r="S22" s="3">
         <v>5600</v>
       </c>
       <c r="T22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="U22" s="3">
         <v>5400</v>
       </c>
       <c r="V22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W22" s="3">
         <v>10700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>238600</v>
+      </c>
+      <c r="E23" s="3">
         <v>180400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>255200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>297800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>384000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>224000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>222900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>263700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>217300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>197100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>148900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>151700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>225200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>94000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>111100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>140800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>120000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>95800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>98100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>127400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>206900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>92000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>58900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E24" s="3">
         <v>18400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>41000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>26600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>41000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>31900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E26" s="3">
         <v>161900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>224000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>256700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>328300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>205500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>196300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>222700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>188900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>176200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>125100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>135900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>206500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>109100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>92600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>120000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>101000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>88700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>78400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>103400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>175000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>85200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>66300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E27" s="3">
         <v>161900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>224000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>256700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>328300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>205500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>196300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>222700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>188900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>176200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>125100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>135900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>206500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>109100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>92600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>120000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>101000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>88700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>78400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>103400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>175000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>85200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>66300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2179,8 +2236,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2205,8 +2265,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2223,23 +2283,23 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>51200</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2253,8 +2313,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2467,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-12000</v>
       </c>
       <c r="Q32" s="3">
         <v>-12000</v>
       </c>
       <c r="R32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E33" s="3">
         <v>161900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>224000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>256700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>328300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>205500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>196300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>222700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>188900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>176200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>125100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>135900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>206500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>109100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>143800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>120000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>101000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>87000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-105900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>103400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>175000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>85200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>66300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E35" s="3">
         <v>161900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>224000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>256700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>328300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>205500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>196300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>222700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>188900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>176200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>125100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>135900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>206500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>109100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>143800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>120000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>101000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>87000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-105900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>103400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>175000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>85200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>66300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
         <v>44654</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44472</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44381</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44290</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,674 +2917,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>572000</v>
+      </c>
+      <c r="E41" s="3">
         <v>794600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1122200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1079500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>954400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>831100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>914100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>945200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>725400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>593500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>773900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>593900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>495100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>483700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>926800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>814000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>480400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>637900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>429800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>418700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>598300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>324700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>307900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>209800</v>
+      </c>
+      <c r="E42" s="3">
         <v>282000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>244200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>233400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>282100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>478300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>522300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>287800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>229800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>211000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>137300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>342500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>400200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>421100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>190100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>418400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>712300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>860500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1348000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1217800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>809300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>895600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>871000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>683700</v>
+      </c>
+      <c r="E43" s="3">
         <v>546900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>550700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>597100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>868500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>581500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>497500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>587200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>694500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>487400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>362400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>357900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>372200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>333800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>291300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>352500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>454100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>414000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>272800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>268100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>405900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>315000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>192400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>295600</v>
+      </c>
+      <c r="E44" s="3">
         <v>259300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>243300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>224200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>226100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>262500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>222200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>191300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>206100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>183000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>196700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>178200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>164500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>161300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>153500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>154700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>135600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>131900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>107500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>125200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>153600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>203300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>136000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>509200</v>
+      </c>
+      <c r="E45" s="3">
         <v>491500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>415700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>387000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>368300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>347700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>259300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>232100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>238200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>227700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>188600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>182000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>184800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>194000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>170800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>139800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>111800</v>
-      </c>
-      <c r="T45" s="3">
-        <v>112200</v>
       </c>
       <c r="U45" s="3">
         <v>112200</v>
       </c>
       <c r="V45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="W45" s="3">
         <v>110300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>112700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>115600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>116500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2270400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2374400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2576200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2521200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2699500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2501100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2415400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2243600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2094000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1702600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1658900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1654600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1616800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1594000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1732500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1879400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1894200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2156400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2270300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2140100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2080000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1854200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1623800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E47" s="3">
         <v>126100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>133900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>136700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>181600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>115600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>118000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>108300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>107000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>104500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>103600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>99000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>91900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>87700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>92000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>111400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>89300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>125900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>211900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>212500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>262100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>433800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>477900</v>
+      </c>
+      <c r="E48" s="3">
         <v>467200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>456000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>452200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>457200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>454000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>449400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>440900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>409800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>391000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>377800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>365200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>352200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>334000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>279800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>278100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>285300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>281300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>268400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>259100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>258000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>253500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>253800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>460200</v>
+      </c>
+      <c r="E49" s="3">
         <v>489700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>501700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>515100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>529700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>530500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>554800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>538900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>529600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>524300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>541900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>467300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>493400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>498900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>507300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>533000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>536800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>360100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>331100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>335000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>332800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>324900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>323700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3762,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E52" s="3">
         <v>151700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>141600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>137100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>132900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>118600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>114800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>104800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>108900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>102000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>104000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>108200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>110000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>97800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>99200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>104000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>108100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>113800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>143200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>146900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>147600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>127300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3916,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3488400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3609200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3809400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3762200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4000900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3719700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3652300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3436500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3249200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2820400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2787000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2698800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2671500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2616600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2706600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2882500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2931700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2995200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3109500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3089300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3030200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2842300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2762500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,105 +4053,109 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E57" s="3">
         <v>156500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>153100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>154900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>156100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>177500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>133700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>150400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>184200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>129600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>126600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>117900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>103400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>118800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>107900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>102700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>104000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>86400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>79400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>103500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>121400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>95400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E58" s="3">
         <v>20500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>32200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>213800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>33300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>24</v>
@@ -4039,8 +4172,8 @@
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4072,304 +4205,319 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>612100</v>
+      </c>
+      <c r="E59" s="3">
         <v>535200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>632800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>566500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>615500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>498300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>533900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>521400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>545600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>384300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>412400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>375800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>363600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>323200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>375600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>350500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>349600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>287400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>367900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>351900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>335800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>271600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>277300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>797400</v>
+      </c>
+      <c r="E60" s="3">
         <v>712200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>805100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>753600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>985400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>686800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>671800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>729700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>514000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>539000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>493700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>467000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>442000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>476300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>458400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>452300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>391300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>454300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>431400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>439200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>393100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>372700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E61" s="3">
         <v>75400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>89200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>112800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>143600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>356900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>376800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>406200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>402300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>398500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>394700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>390900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>387200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>383600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>380000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>376400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>372900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>369400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>366000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>362600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>359200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>355900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>352700</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>327600</v>
+      </c>
+      <c r="E62" s="3">
         <v>347000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>351100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>355400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>357300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>350200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>363900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>365000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>372600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>357300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>373100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>331500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>337900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>320900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>328000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>379900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>366600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>329500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>335600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>185500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>183100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>173400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>208500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4516,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4744,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1189800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1134600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1245500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1221800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1486300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1393900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1441500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1443000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1504600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1269700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1306900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1216200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1192100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1146400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1184300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1214700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1191800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1090200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1155900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>979400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>981600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>922400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>933800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5158,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>610200</v>
+      </c>
+      <c r="E72" s="3">
         <v>762200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>736600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>712400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>685000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>529100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>387400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>207700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-164300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-241900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-226400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-222500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-215600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-158200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>74300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>216100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>272000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>438200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>405000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>300300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>230300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5466,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2298600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2474500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2564000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2540400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2514600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2325800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2210800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1993500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1744600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1550700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1480200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1482600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1479400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1470200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1522400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1667800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1739900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1905000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1953600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2109900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2048600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1919900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1828700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
         <v>44654</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44472</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44381</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44290</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E81" s="3">
         <v>161900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>224000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>256700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>328300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>205500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>196300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>222700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>188900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>176200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>125100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>135900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>206500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>109100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>143800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>120000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>101000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>87000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-105900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>103400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>175000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>85200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>66300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +5810,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E83" s="3">
         <v>27700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>58900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>26500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>26700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>27700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>27200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>25300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E89" s="3">
         <v>7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>331300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>522700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>206300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>260400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>342500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>222900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>216300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>199100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>163300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>186400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>240600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>131900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-81900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>147500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>309800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>230300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-61100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>37200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6378,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-39300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-62900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-27300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-82700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>63800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>87600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-277200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-119400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-63000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-110200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>110200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>22300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-289200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-261000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>204000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>300500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-44300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>462900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-74500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-428400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>113700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>126400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-372300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,28 +6715,29 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-17900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-16300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-16400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-16600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-16600</v>
       </c>
       <c r="J96" s="3">
         <v>-16600</v>
@@ -6513,52 +6746,55 @@
         <v>-16600</v>
       </c>
       <c r="L96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-16700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-15000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-15300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-31000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-16000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-16600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-17100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-17600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-13700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-13800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-13900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-12100</v>
       </c>
       <c r="Z96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7021,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-372200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-254600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-251200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-461400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-169200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-126700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-113900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-146400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-122700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-305200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-199800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-277400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-207900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-243700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-174400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-62500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-62200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-70500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-50000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>347700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z101" s="3" t="s">
+      <c r="AA101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-222600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-327600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>42700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>125000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>123300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-83000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>219700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>131900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-180400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>180000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>98800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-431600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-443000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>112700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>333600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-157500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>208000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-179700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>273600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>16900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>9900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,355 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44381</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44290</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>827100</v>
+      </c>
+      <c r="E8" s="3">
         <v>840800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>755400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>885000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>950500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1085700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>781600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>759000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>819500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>838700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>704400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>654700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>582000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1058300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>494100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>519600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>566800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>526900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>487500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>479400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>503400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>696900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>456900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>380000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>341700</v>
+      </c>
+      <c r="E9" s="3">
         <v>334400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>358000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>379500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>438700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>320000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>309200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>360600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>367200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>298800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>271400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>237000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>446700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>206500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>210000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>233200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>219600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>217600</v>
-      </c>
-      <c r="V9" s="3">
-        <v>208500</v>
       </c>
       <c r="W9" s="3">
         <v>208500</v>
       </c>
       <c r="X9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="Y9" s="3">
         <v>306300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>191900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>161000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>485400</v>
+      </c>
+      <c r="E10" s="3">
         <v>506400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>455000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>527000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>571000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>647000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>461600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>449800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>458900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>471500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>405600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>383300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>345000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>611600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>287600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>309600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>333600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>307300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>269900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>270900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>294900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>390600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>265000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>219000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,85 +1041,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E12" s="3">
         <v>112000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>108100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>110000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>107200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>110000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>94900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>94100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>85200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>86800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>77800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>158200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>76800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>74700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>77000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>75300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>74400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>72100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>77000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>82300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>76000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>70100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1183,162 +1199,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-3100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-14400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-27700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>37200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-7600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-4400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-4400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E15" s="3">
         <v>4900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5400</v>
       </c>
       <c r="H15" s="3">
         <v>5400</v>
       </c>
       <c r="I15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J15" s="3">
         <v>5500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20700</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>10600</v>
       </c>
       <c r="R15" s="3">
         <v>10600</v>
       </c>
       <c r="S15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="T15" s="3">
         <v>11100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>9800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>7900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1388,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>595600</v>
+      </c>
+      <c r="E17" s="3">
         <v>592800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>569500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>632000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>648300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>698000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>552700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>524900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>549800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>620700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>497600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>483000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>427100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>831200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>401000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>407300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>423300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>406500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>389900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>384800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>374200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>489100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>363100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>320800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>231500</v>
+      </c>
+      <c r="E18" s="3">
         <v>248000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>185900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>253000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>302200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>387700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>228900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>234100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>269700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>218000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>206800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>171700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>154900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>227100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>93100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>112300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>143500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>120400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>97600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>94600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>129200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>207800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>93800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>59200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1546,393 +1578,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>12000</v>
       </c>
       <c r="R20" s="3">
         <v>12000</v>
       </c>
       <c r="S20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>255300</v>
+      </c>
+      <c r="E21" s="3">
         <v>266300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>209100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>287600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>331800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>421100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>263700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>261300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>256000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>234500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>192300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>192200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>295300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>134700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>154700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>175900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>153400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>126800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>130000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>164900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>240000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>124400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>85700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>5600</v>
       </c>
       <c r="T22" s="3">
         <v>5600</v>
       </c>
       <c r="U22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="V22" s="3">
         <v>5400</v>
       </c>
       <c r="W22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="X22" s="3">
         <v>10700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>226200</v>
+      </c>
+      <c r="E23" s="3">
         <v>238600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>180400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>255200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>297800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>384000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>224000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>222900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>263700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>217300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>197100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>148900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>151700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>225200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>94000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>111100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>140800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>120000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>95800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>98100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>127400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>206900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>92000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>58900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E24" s="3">
         <v>40800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>41000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>26600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-15200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>31900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2008,162 +2056,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E26" s="3">
         <v>197800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>161900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>224000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>256700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>328300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>205500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>196300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>222700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>188900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>176200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>125100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>135900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>206500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>109100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>92600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>120000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>101000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>88700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>78400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>103400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>175000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>85200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>66300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E27" s="3">
         <v>197800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>161900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>224000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>256700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>328300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>205500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>196300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>222700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>188900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>176200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>125100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>135900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>206500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>109100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>92600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>120000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>101000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>88700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>78400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>103400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>175000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>85200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>66300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2239,8 +2296,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2268,8 +2328,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2286,23 +2346,23 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>51200</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2316,8 +2376,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2456,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,162 +2536,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>8500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-12000</v>
       </c>
       <c r="R32" s="3">
         <v>-12000</v>
       </c>
       <c r="S32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E33" s="3">
         <v>197800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>161900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>224000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>256700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>328300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>205500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>196300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>222700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>188900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>176200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>125100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>135900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>206500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>109100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>143800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>120000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>101000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>87000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-105900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>103400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>175000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>85200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>66300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2776,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E35" s="3">
         <v>197800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>161900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>224000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>256700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>328300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>205500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>196300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>222700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>188900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>176200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>125100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>135900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>206500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>109100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>143800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>120000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>101000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>87000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-105900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>103400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>175000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>85200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>66300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44381</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44290</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +2973,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,701 +3003,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>710700</v>
+      </c>
+      <c r="E41" s="3">
         <v>572000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>794600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1122200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1079500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>954400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>831100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>914100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>945200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>725400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>593500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>773900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>593900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>495100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>483700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>926800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>814000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>480400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>637900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>429800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>418700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>598300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>324700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>307900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E42" s="3">
         <v>209800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>282000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>244200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>233400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>282100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>478300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>522300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>287800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>229800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>211000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>137300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>342500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>400200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>421100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>190100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>418400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>712300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>860500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1348000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1217800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>809300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>895600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>871000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>530300</v>
+      </c>
+      <c r="E43" s="3">
         <v>683700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>546900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>550700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>597100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>868500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>581500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>497500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>587200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>694500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>487400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>362400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>357900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>372200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>333800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>291300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>352500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>454100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>414000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>272800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>268100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>405900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>315000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>192400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>310800</v>
+      </c>
+      <c r="E44" s="3">
         <v>295600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>259300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>243300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>224200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>226100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>262500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>222200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>191300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>206100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>183000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>196700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>178200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>164500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>161300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>153500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>154700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>135600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>131900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>107500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>125200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>153600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>203300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>136000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>510400</v>
+      </c>
+      <c r="E45" s="3">
         <v>509200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>491500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>415700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>387000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>368300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>347700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>259300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>232100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>238200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>227700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>188600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>182000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>184800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>194000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>170800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>139800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>111800</v>
-      </c>
-      <c r="U45" s="3">
-        <v>112200</v>
       </c>
       <c r="V45" s="3">
         <v>112200</v>
       </c>
       <c r="W45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="X45" s="3">
         <v>110300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>112700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>115600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>116500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2127600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2270400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2374400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2576200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2521200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2699500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2501100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2415400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2243600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2094000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1702600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1658900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1654600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1616800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1594000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1732500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1879400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1894200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2156400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2270300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2140100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2080000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1854200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1623800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E47" s="3">
         <v>112000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>126100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>133900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>136700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>181600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>115600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>118000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>108300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>107000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>104500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>103600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>99000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>91900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>87700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>92000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>111400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>89300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>125900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>211900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>212500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>262100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>433800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>476600</v>
+      </c>
+      <c r="E48" s="3">
         <v>477900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>467200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>456000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>452200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>457200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>454000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>449400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>440900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>409800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>391000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>377800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>365200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>352200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>334000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>279800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>278100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>285300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>281300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>268400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>259100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>258000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>253500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>253800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>431400</v>
+      </c>
+      <c r="E49" s="3">
         <v>460200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>489700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>501700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>515100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>529700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>530500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>554800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>538900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>529600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>524300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>541900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>467300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>493400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>498900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>507300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>533000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>536800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>360100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>331100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>335000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>332800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>324900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>323700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3801,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,85 +3881,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>173300</v>
+      </c>
+      <c r="E52" s="3">
         <v>167800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>151700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>141600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>137100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>132900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>118600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>114800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>104800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>108900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>102000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>104000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>108200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>110000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>97800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>99200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>100100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>104000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>108100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>113800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>143200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>146900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>147600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>127300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,85 +4041,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3319900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3488400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3609200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3809400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3762200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4000900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3719700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3652300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3436500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3249200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2820400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2787000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2698800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2671500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2616600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2706600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2882500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2931700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2995200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3109500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3089300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3030200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2842300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2762500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4153,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,111 +4183,115 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E57" s="3">
         <v>175600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>156500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>153100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>154900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>156100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>177500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>133700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>150400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>184200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>129600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>126600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>117900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>103400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>118800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>107900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>102700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>104000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>86400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>79400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>103500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>121400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>95400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E58" s="3">
         <v>9600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>32200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>213800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>33300</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>24</v>
@@ -4175,8 +4308,8 @@
       <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4208,316 +4341,331 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>519400</v>
+      </c>
+      <c r="E59" s="3">
         <v>612100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>535200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>632800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>566500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>615500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>498300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>533900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>521400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>545600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>384300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>412400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>375800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>363600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>323200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>375600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>350500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>349600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>287400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>367900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>351900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>335800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>271600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>277300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>701900</v>
+      </c>
+      <c r="E60" s="3">
         <v>797400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>712200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>805100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>753600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>985400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>686800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>671800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>729700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>514000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>539000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>493700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>467000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>442000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>476300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>458400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>452300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>391300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>454300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>431400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>439200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>393100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>372700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E61" s="3">
         <v>64800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>75400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>89200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>112800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>143600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>356900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>376800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>406200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>402300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>398500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>394700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>390900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>387200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>383600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>380000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>376400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>372900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>369400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>366000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>362600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>359200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>355900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>352700</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>313600</v>
+      </c>
+      <c r="E62" s="3">
         <v>327600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>347000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>351100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>355400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>357300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>350200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>363900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>365000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>372600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>357300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>373100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>331500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>337900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>320900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>328000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>379900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>366600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>329500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>335600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>185500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>183100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>173400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>208500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4741,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4670,8 +4821,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,85 +4901,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1065800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1189800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1134600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1245500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1221800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1486300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1393900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1441500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1443000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1504600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1269700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1306900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1216200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1192100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1146400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1184300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1214700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1191800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1090200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1155900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>979400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>981600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>922400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>933800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5013,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5091,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5171,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5084,8 +5251,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,85 +5331,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>572700</v>
+      </c>
+      <c r="E72" s="3">
         <v>610200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>762200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>736600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>712400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>685000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>529100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>387400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>207700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-164300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-241900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-226400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-222500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-215600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-158200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>74300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>216100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>272000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>438200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>405000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>300300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>230300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5491,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5571,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,85 +5651,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2254100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2298600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2474500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2564000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2540400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2514600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2325800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2210800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1993500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1744600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1550700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1480200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1482600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1479400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1470200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1522400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1667800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1739900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1905000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1953600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2109900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2048600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1919900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1828700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +5811,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44381</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44290</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E81" s="3">
         <v>197800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>161900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>224000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>256700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>328300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>205500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>196300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>222700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>188900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>176200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>125100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>135900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>206500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>109100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>143800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>120000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>101000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>87000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-105900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>103400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>175000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>85200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>66300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,85 +6008,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E83" s="3">
         <v>26800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>58900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>26500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>26700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>27700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>27200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>25300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6166,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6246,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6326,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6406,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6486,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>271600</v>
+      </c>
+      <c r="E89" s="3">
         <v>115500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>331300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>522700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>206300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>38100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>260400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>342500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>222900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>216300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>199100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>163300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>186400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>240600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>131900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-81900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>147500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>309800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>230300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-61100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>37200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,85 +6598,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-39300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-62900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-27300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-23900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-22100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6756,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +6836,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>99800</v>
+      </c>
+      <c r="E94" s="3">
         <v>28400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-82700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>63800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>87600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-277200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-119400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-63000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-110200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>110200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>22300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-289200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-261000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>204000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>300500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-44300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>462900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-74500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-428400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>113700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>126400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-372300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,31 +6948,32 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-17500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-17900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-16300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-16400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-16600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-16600</v>
       </c>
       <c r="K96" s="3">
         <v>-16600</v>
@@ -6749,52 +6982,55 @@
         <v>-16600</v>
       </c>
       <c r="M96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="N96" s="3">
         <v>-16700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-15000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-15300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-15600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-16000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-16600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-17100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-17600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-13700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-13800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-12100</v>
       </c>
       <c r="AA96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7106,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7186,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,235 +7266,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-232100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-372200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-254600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-251200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-461400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-169200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-126700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-113900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-146400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-122700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-305200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-199800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-277400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-207900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-243700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-174400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-62500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-62200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-70500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-50000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>347700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>5700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA101" s="3" t="s">
+      <c r="AB101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>138700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-222600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-327600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>42700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>125000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>123300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-83000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>219700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>131900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-180400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>180000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>98800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-431600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-443000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>112700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>333600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-157500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>208000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-179700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>273600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>16900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>9900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,368 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44836</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44745</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44654</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44472</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44381</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44290</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42918</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42827</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>731800</v>
+      </c>
+      <c r="E8" s="3">
         <v>827100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>840800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>755400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>885000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>950500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1085700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>781600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>759000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>819500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>838700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>704400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>654700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>582000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1058300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>494100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>519600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>566800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>526900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>487500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>479400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>503400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>696900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>456900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>380000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E9" s="3">
         <v>341700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>334400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>358000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>379500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>438700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>320000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>309200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>360600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>367200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>298800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>271400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>237000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>446700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>206500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>210000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>233200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>219600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>217600</v>
-      </c>
-      <c r="W9" s="3">
-        <v>208500</v>
       </c>
       <c r="X9" s="3">
         <v>208500</v>
       </c>
       <c r="Y9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="Z9" s="3">
         <v>306300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>191900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>161000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>420400</v>
+      </c>
+      <c r="E10" s="3">
         <v>485400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>506400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>455000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>527000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>571000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>647000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>461600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>449800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>458900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>471500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>405600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>383300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>345000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>611600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>287600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>309600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>333600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>307300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>269900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>270900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>294900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>390600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>265000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>219000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,88 +1055,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E12" s="3">
         <v>111700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>112000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>108100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>110000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>107200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>110000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>94900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>94100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>85200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>86800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>77800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>158200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>76800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>74700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>77000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>75300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>74400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>72100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>77000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>82300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>76000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>70100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1202,88 +1219,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>21400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-14400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-27700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>37200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-7600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-5300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1291,79 +1314,82 @@
         <v>4700</v>
       </c>
       <c r="E15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F15" s="3">
         <v>4900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5400</v>
       </c>
       <c r="I15" s="3">
         <v>5400</v>
       </c>
       <c r="J15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K15" s="3">
         <v>5500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>20700</v>
-      </c>
-      <c r="R15" s="3">
-        <v>10600</v>
       </c>
       <c r="S15" s="3">
         <v>10600</v>
       </c>
       <c r="T15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="U15" s="3">
         <v>11100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>9800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>7000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>7900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1389,168 +1415,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>565200</v>
+      </c>
+      <c r="E17" s="3">
         <v>595600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>592800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>569500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>632000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>648300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>698000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>552700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>524900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>549800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>620700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>497600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>483000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>427100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>831200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>401000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>407300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>423300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>406500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>389900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>384800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>374200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>489100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>363100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>320800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>166600</v>
+      </c>
+      <c r="E18" s="3">
         <v>231500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>248000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>185900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>253000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>302200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>387700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>228900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>234100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>269700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>218000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>206800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>171700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>154900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>227100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>93100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>112300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>143500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>120400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>97600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>94600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>129200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>207800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>93800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>59200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1579,408 +1612,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>12000</v>
       </c>
       <c r="S20" s="3">
         <v>12000</v>
       </c>
       <c r="T20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>9000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E21" s="3">
         <v>255300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>266300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>209100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>287600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>331800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>421100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>263700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>261300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>256000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>234500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>192300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>192200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>295300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>134700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>154700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>175900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>153400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>126800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>130000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>164900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>240000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>124400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>85700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>5600</v>
       </c>
       <c r="U22" s="3">
         <v>5600</v>
       </c>
       <c r="V22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="W22" s="3">
         <v>5400</v>
       </c>
       <c r="X22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Y22" s="3">
         <v>10700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>195200</v>
+      </c>
+      <c r="E23" s="3">
         <v>226200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>238600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>180400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>255200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>297800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>384000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>224000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>222900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>263700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>217300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>197100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>148900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>151700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>225200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>94000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>111100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>140800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>120000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>95800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>98100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>127400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>206900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>92000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>58900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E24" s="3">
         <v>42700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>31100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>41000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-15200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>19700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>31900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-7500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2059,168 +2108,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E26" s="3">
         <v>183500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>197800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>161900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>224000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>256700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>328300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>205500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>196300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>222700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>188900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>176200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>125100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>135900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>206500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>109100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>92600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>120000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>101000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>88700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>78400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>103400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>175000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>85200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>66300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E27" s="3">
         <v>183500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>197800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>161900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>224000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>256700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>328300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>205500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>196300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>222700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>188900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>176200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>125100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>135900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>206500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>109100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>92600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>120000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>101000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>88700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>78400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>103400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>175000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>85200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>66300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2299,8 +2357,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2331,8 +2392,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2349,23 +2410,23 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>51200</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2379,8 +2440,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2459,8 +2523,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2539,168 +2606,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-12000</v>
       </c>
       <c r="S32" s="3">
         <v>-12000</v>
       </c>
       <c r="T32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E33" s="3">
         <v>183500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>197800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>161900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>224000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>256700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>328300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>205500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>196300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>222700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>188900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>176200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>125100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>135900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>206500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>109100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>143800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>120000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>101000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>87000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-105900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>103400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>175000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>85200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>66300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2779,173 +2855,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E35" s="3">
         <v>183500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>197800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>161900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>224000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>256700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>328300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>205500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>196300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>222700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>188900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>176200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>125100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>135900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>206500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>109100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>143800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>120000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>101000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>87000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-105900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>103400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>175000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>85200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>66300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44836</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44745</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44654</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44472</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44381</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44290</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42918</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42827</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2974,8 +3059,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3004,728 +3090,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>854800</v>
+      </c>
+      <c r="E41" s="3">
         <v>710700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>572000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>794600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1122200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1079500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>954400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>831100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>914100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>945200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>725400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>593500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>773900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>593900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>495100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>483700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>926800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>814000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>480400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>637900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>429800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>418700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>598300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>324700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>307900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E42" s="3">
         <v>65300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>209800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>282000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>244200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>233400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>282100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>478300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>522300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>287800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>229800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>211000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>137300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>342500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>400200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>421100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>190100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>418400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>712300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>860500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1348000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1217800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>809300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>895600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>871000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>491100</v>
+      </c>
+      <c r="E43" s="3">
         <v>530300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>683700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>546900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>550700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>597100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>868500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>581500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>497500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>587200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>694500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>487400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>362400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>357900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>372200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>333800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>291300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>352500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>454100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>414000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>272800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>268100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>405900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>315000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>192400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E44" s="3">
         <v>310800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>295600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>259300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>243300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>224200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>226100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>262500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>222200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>191300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>206100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>183000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>196700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>178200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>164500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>161300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>153500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>154700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>135600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>131900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>107500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>125200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>153600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>203300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>136000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>547400</v>
+      </c>
+      <c r="E45" s="3">
         <v>510400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>509200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>491500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>415700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>387000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>368300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>347700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>259300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>232100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>238200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>227700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>188600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>182000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>184800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>194000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>170800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>139800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>111800</v>
-      </c>
-      <c r="V45" s="3">
-        <v>112200</v>
       </c>
       <c r="W45" s="3">
         <v>112200</v>
       </c>
       <c r="X45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="Y45" s="3">
         <v>110300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>112700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>115600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>116500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2257900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2127600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2270400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2374400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2576200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2521200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2699500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2501100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2415400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2243600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2094000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1702600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1658900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1654600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1616800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1594000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1732500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1879400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1894200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2156400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2270300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2140100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2080000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1854200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1623800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E47" s="3">
         <v>111000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>112000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>126100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>133900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>136700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>181600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>115600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>118000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>108300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>107000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>100500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>104500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>103600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>99000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>91900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>87700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>92000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>111400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>89300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>125900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>211900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>212500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>262100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>433800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>492400</v>
+      </c>
+      <c r="E48" s="3">
         <v>476600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>477900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>467200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>456000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>452200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>457200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>454000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>449400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>440900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>409800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>391000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>377800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>365200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>352200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>334000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>279800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>278100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>285300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>281300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>268400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>259100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>258000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>253500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>253800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>456700</v>
+      </c>
+      <c r="E49" s="3">
         <v>431400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>460200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>489700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>501700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>515100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>529700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>530500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>554800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>538900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>529600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>524300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>541900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>467300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>493400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>498900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>507300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>533000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>536800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>360100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>331100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>335000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>332800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>324900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>323700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3804,8 +3918,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3884,88 +4001,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E52" s="3">
         <v>173300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>167800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>151700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>141600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>137100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>132900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>118600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>114800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>104800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>108900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>102000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>104000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>108200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>110000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>97800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>99200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>100100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>104000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>108100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>113800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>143200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>146900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>147600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>127300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4044,88 +4167,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3501300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3319900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3488400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3609200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3809400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3762200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4000900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3719700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3652300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3436500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3249200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2820400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2787000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2698800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2671500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2616600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2706600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2882500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2931700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2995200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3109500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3089300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3030200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2842300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2762500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4154,8 +4283,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4184,117 +4314,121 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>139700</v>
+      </c>
+      <c r="E57" s="3">
         <v>168000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>175600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>156500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>153100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>154900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>156100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>177500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>133700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>150400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>184200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>129600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>126600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>117900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>103400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>118800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>107900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>102700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>104000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>86400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>79400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>103500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>121400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>95400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E58" s="3">
         <v>14600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>213800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33300</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
@@ -4311,8 +4445,8 @@
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4344,328 +4478,343 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>556400</v>
+      </c>
+      <c r="E59" s="3">
         <v>519400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>612100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>535200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>632800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>566500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>615500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>498300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>533900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>521400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>545600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>384300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>412400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>375800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>363600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>323200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>375600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>350500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>349600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>287400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>367900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>351900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>335800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>271600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>277300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>746300</v>
+      </c>
+      <c r="E60" s="3">
         <v>701900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>797400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>712200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>805100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>753600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>985400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>686800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>671800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>729700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>514000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>539000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>493700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>467000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>442000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>476300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>458400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>452300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>391300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>454300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>431400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>439200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>393100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>372700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>50200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>64800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>75400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>89200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>112800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>143600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>356900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>376800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>406200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>402300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>398500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>394700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>390900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>387200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>383600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>380000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>376400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>372900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>369400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>366000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>362600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>359200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>355900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>352700</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>303700</v>
+      </c>
+      <c r="E62" s="3">
         <v>313600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>327600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>347000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>351100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>355400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>357300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>350200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>363900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>365000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>372600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>357300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>373100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>331500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>337900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>320900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>328000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>379900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>366600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>329500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>335600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>185500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>183100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>173400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>208500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4744,8 +4893,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4824,8 +4976,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4904,88 +5059,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1065800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1189800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1134600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1245500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1221800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1486300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1393900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1441500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1443000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1504600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1269700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1306900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1216200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1192100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1146400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1184300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1214700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1191800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1090200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1155900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>979400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>981600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>922400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>933800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5014,8 +5175,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5094,8 +5256,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5174,8 +5339,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5254,8 +5422,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5334,88 +5505,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>725700</v>
+      </c>
+      <c r="E72" s="3">
         <v>572700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>610200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>762200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>736600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>712400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>685000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>529100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>387400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>207700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-164300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-241900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-226400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-222500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-215600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-158200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>74300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>216100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>272000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>438200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>405000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>300300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>230300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5494,8 +5671,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5574,8 +5754,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5654,88 +5837,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2451300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2254100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2298600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2474500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2564000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2540400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2514600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2325800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2210800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1993500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1744600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1550700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1480200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1482600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1479400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1470200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1522400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1667800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1739900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1905000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1953600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2109900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2048600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1919900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1828700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5814,173 +6003,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44836</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44745</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44654</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44472</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44381</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44290</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42918</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42827</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E81" s="3">
         <v>183500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>197800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>161900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>224000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>256700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>328300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>205500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>196300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>222700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>188900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>176200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>125100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>135900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>206500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>109100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>143800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>120000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>101000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>87000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-105900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>103400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>175000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>85200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>66300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6009,88 +6207,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E83" s="3">
         <v>28400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>58900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>26500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>26700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>27700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>27200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>25300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6169,8 +6371,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6249,8 +6454,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6329,8 +6537,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6409,8 +6620,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6489,88 +6703,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E89" s="3">
         <v>271600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>115500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>331300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>522700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>206300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>38100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>260400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>342500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>222900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>43100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>216300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>199100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>163300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>186400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>240600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>131900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-81900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>147500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>309800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>230300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-61100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>37200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6599,88 +6819,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-45700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-39300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-34800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-27300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-23900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-22100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6759,8 +6983,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6839,88 +7066,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>99800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>28400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-82700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>63800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>87600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-277200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-119400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-63000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-110200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>110200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>22300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-289200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-261000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>204000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>300500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-44300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>462900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-74500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-428400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>113700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>126400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-372300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6949,8 +7182,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6958,25 +7192,25 @@
         <v>-17100</v>
       </c>
       <c r="E96" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-17500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-17900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-16300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-16400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-16600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-16600</v>
       </c>
       <c r="L96" s="3">
         <v>-16600</v>
@@ -6985,52 +7219,55 @@
         <v>-16600</v>
       </c>
       <c r="N96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-16700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-15000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-31000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-15600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-16000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-16600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-17100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-17600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-13700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-13900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-12100</v>
       </c>
       <c r="AB96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7109,8 +7346,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7189,8 +7429,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7269,244 +7512,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-232100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-372200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-254600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-251200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-461400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-169200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-126700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-113900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-146400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-122700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-305200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-199800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-277400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-207900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-243700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-174400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-62500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-62200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-70500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-50000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>347700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB101" s="3" t="s">
+      <c r="AC101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E102" s="3">
         <v>138700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-222600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-327600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>42700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>125000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>123300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-83000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>219700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>131900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-180400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>180000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>98800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-431600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-443000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>112700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>333600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-157500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>208000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-179700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>273600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>16900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>9900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,368 +665,381 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44836</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44745</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44654</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44472</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44381</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44290</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42918</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42827</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>617500</v>
+      </c>
+      <c r="E8" s="3">
         <v>731800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>827100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>840800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>755400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>885000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>950500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1085700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>781600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>759000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>819500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>838700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>704400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>654700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>582000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1058300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>494100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>519600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>566800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>526900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>487500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>479400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>503400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>696900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>456900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>380000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>261100</v>
+      </c>
+      <c r="E9" s="3">
         <v>311400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>341700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>334400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>358000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>379500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>438700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>320000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>309200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>360600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>367200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>298800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>271400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>237000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>446700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>206500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>210000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>233200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>219600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>217600</v>
-      </c>
-      <c r="X9" s="3">
-        <v>208500</v>
       </c>
       <c r="Y9" s="3">
         <v>208500</v>
       </c>
       <c r="Z9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="AA9" s="3">
         <v>306300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>191900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>161000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>356400</v>
+      </c>
+      <c r="E10" s="3">
         <v>420400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>485400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>506400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>455000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>527000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>571000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>647000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>461600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>449800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>458900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>471500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>405600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>383300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>345000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>611600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>287600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>309600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>333600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>307300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>269900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>270900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>294900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>390600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>265000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>219000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,91 +1069,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>105800</v>
+      </c>
+      <c r="E12" s="3">
         <v>108800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>111700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>112000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>108100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>110000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>107200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>110000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>94900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>94100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>85200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>86800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>77800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>158200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>76800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>74700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>77000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>75300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>74400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>72100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>77000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>82300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>76000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>70100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1222,174 +1239,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-14400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-27700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>37200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-7600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-4400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-5300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E15" s="3">
         <v>4700</v>
       </c>
       <c r="F15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G15" s="3">
         <v>4900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5400</v>
       </c>
       <c r="J15" s="3">
         <v>5400</v>
       </c>
       <c r="K15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L15" s="3">
         <v>5500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>20700</v>
-      </c>
-      <c r="S15" s="3">
-        <v>10600</v>
       </c>
       <c r="T15" s="3">
         <v>10600</v>
       </c>
       <c r="U15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="V15" s="3">
         <v>11100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>9800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>7400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>7000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>7900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1442,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>524700</v>
+      </c>
+      <c r="E17" s="3">
         <v>565200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>595600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>592800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>569500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>632000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>648300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>698000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>552700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>524900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>549800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>620700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>497600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>483000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>427100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>831200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>401000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>407300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>423300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>406500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>389900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>384800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>374200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>489100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>363100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>320800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E18" s="3">
         <v>166600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>231500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>248000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>185900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>253000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>302200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>387700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>228900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>234100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>269700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>218000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>206800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>171700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>154900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>227100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>93100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>112300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>143500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>120400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>97600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>94600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>129200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>207800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>93800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>59200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1613,174 +1646,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>29700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>12000</v>
       </c>
       <c r="T20" s="3">
         <v>12000</v>
       </c>
       <c r="U20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>8900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>9000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E21" s="3">
         <v>224000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>255300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>266300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>209100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>287600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>331800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>421100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>263700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>261300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>256000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>234500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>192300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>192200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>295300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>134700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>154700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>175900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>153400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>126800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>130000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>164900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>240000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>124400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>85700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1788,248 +1828,257 @@
         <v>1000</v>
       </c>
       <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>5600</v>
       </c>
       <c r="V22" s="3">
         <v>5600</v>
       </c>
       <c r="W22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="X22" s="3">
         <v>5400</v>
       </c>
       <c r="Y22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Z22" s="3">
         <v>10700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E23" s="3">
         <v>195200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>226200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>238600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>180400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>255200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>297800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>384000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>224000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>222900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>263700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>217300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>197100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>148900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>151700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>225200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>94000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>111100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>140800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>120000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>95800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>98100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>127400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>206900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>92000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>58900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E24" s="3">
         <v>22900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>42700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>41000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-15200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>24000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>31900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-7500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2111,174 +2160,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E26" s="3">
         <v>172300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>183500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>197800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>161900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>224000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>256700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>328300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>205500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>196300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>222700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>188900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>176200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>125100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>135900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>206500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>109100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>92600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>120000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>101000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>88700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>78400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>103400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>175000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>85200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>66300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E27" s="3">
         <v>172300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>183500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>197800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>161900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>224000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>256700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>328300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>205500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>196300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>222700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>188900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>176200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>125100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>135900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>206500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>109100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>92600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>120000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>101000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>88700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>78400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>103400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>175000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>85200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>66300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2360,8 +2418,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2395,8 +2456,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2413,23 +2474,23 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>51200</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-1700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2443,8 +2504,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,8 +2590,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2609,174 +2676,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-29700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-12000</v>
       </c>
       <c r="T32" s="3">
         <v>-12000</v>
       </c>
       <c r="U32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E33" s="3">
         <v>172300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>183500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>197800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>161900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>224000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>256700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>328300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>205500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>196300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>222700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>188900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>176200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>125100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>135900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>206500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>109100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>143800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>120000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>101000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>87000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-105900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>103400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>175000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>85200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>66300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,179 +2934,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E35" s="3">
         <v>172300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>183500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>197800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>161900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>224000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>256700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>328300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>205500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>196300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>222700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>188900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>176200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>125100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>135900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>206500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>109100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>143800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>120000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>101000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>87000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-105900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>103400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>175000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>85200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>66300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44836</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44745</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44654</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44472</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44381</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44290</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42918</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42827</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3060,8 +3145,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3091,755 +3177,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>649200</v>
+      </c>
+      <c r="E41" s="3">
         <v>854800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>710700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>572000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>794600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1122200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1079500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>954400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>831100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>914100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>945200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>725400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>593500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>773900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>593900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>495100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>483700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>926800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>814000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>480400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>637900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>429800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>418700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>598300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>324700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>307900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E42" s="3">
         <v>39600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>65300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>209800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>282000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>244200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>233400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>282100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>478300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>522300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>287800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>229800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>211000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>137300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>342500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>400200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>421100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>190100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>418400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>712300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>860500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1348000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1217800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>809300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>895600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>871000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>455300</v>
+      </c>
+      <c r="E43" s="3">
         <v>491100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>530300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>683700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>546900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>550700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>597100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>868500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>581500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>497500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>587200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>694500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>487400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>362400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>357900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>372200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>333800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>291300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>352500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>454100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>414000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>272800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>268100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>405900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>315000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>192400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>352100</v>
+      </c>
+      <c r="E44" s="3">
         <v>325000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>310800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>295600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>259300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>243300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>224200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>226100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>262500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>222200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>191300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>206100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>183000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>196700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>178200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>164500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>161300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>153500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>154700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>135600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>131900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>107500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>125200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>153600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>203300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>136000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>562500</v>
+      </c>
+      <c r="E45" s="3">
         <v>547400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>510400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>509200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>491500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>415700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>387000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>368300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>347700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>259300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>232100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>238200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>227700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>188600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>182000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>184800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>194000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>170800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>139800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>111800</v>
-      </c>
-      <c r="W45" s="3">
-        <v>112200</v>
       </c>
       <c r="X45" s="3">
         <v>112200</v>
       </c>
       <c r="Y45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="Z45" s="3">
         <v>110300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>112700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>115600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>116500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2112000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2257900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2127600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2270400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2374400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2576200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2521200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2699500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2501100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2415400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2243600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2094000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1702600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1658900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1654600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1616800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1594000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1732500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1879400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1894200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2156400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2270300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2140100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2080000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1854200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1623800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E47" s="3">
         <v>110800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>111000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>112000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>126100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>133900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>136700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>181600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>115600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>118000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>108300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>107000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>100500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>104500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>103600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>99000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>91900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>87700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>92000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>111400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>89300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>125900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>211900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>212500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>262100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>433800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>507300</v>
+      </c>
+      <c r="E48" s="3">
         <v>492400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>476600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>477900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>467200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>456000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>452200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>457200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>454000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>449400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>440900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>409800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>391000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>377800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>365200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>352200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>334000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>279800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>278100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>285300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>281300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>268400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>259100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>258000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>253500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>253800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>459100</v>
+      </c>
+      <c r="E49" s="3">
         <v>456700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>431400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>460200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>489700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>501700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>515100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>529700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>530500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>554800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>538900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>529600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>524300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>541900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>467300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>493400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>498900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>507300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>533000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>536800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>360100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>331100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>335000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>332800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>324900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>323700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3921,8 +4035,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4004,91 +4121,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E52" s="3">
         <v>183500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>173300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>167800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>151700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>141600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>137100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>132900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>118600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>114800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>104800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>108900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>102000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>104000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>108200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>110000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>97800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>99200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>100100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>104000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>108100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>113800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>143200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>146900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>147600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>127300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4170,91 +4293,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3383400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3501300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3319900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3488400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3609200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3809400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3762200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4000900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3719700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3652300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3436500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3249200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2820400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2787000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2698800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2671500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2616600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2706600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2882500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2931700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2995200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3109500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3089300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3030200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2842300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2762500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4413,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4315,123 +4445,127 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E57" s="3">
         <v>139700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>168000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>175600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>156500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>153100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>154900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>156100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>177500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>133700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>150400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>184200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>129600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>126600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>117900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>103400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>118800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>107900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>102700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>104000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>86400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>79400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>103500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>121400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>95400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E58" s="3">
         <v>50100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>213800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33300</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>24</v>
@@ -4448,8 +4582,8 @@
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4481,174 +4615,183 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>450600</v>
+      </c>
+      <c r="E59" s="3">
         <v>556400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>519400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>612100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>535200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>632800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>566500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>615500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>498300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>533900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>521400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>545600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>384300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>412400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>375800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>363600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>323200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>375600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>350500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>349600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>287400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>367900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>351900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>335800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>271600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>277300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>628100</v>
+      </c>
+      <c r="E60" s="3">
         <v>746300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>701900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>797400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>712200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>805100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>753600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>985400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>686800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>671800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>729700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>514000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>539000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>493700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>467000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>442000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>476300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>458400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>452300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>391300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>454300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>431400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>439200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>393100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>372700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4656,165 +4799,171 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>50200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>64800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>75400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>89200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>112800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>143600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>356900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>376800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>406200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>402300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>398500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>394700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>390900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>387200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>383600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>380000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>376400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>372900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>369400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>366000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>362600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>359200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>355900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>352700</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>305900</v>
+      </c>
+      <c r="E62" s="3">
         <v>303700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>313600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>327600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>347000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>351100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>355400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>357300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>350200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>363900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>365000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>372600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>357300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>373100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>331500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>337900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>320900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>328000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>379900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>366600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>329500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>335600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>185500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>183100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>173400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>208500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5045,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4979,8 +5131,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5062,91 +5217,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>933900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1050000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1065800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1189800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1134600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1245500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1221800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1486300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1393900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1441500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1443000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1504600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1269700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1306900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1216200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1192100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1146400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1184300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1214700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1191800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1090200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1155900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>979400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>981600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>922400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>933800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5176,8 +5337,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5259,8 +5421,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5342,8 +5507,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5425,8 +5593,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5508,91 +5679,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>694100</v>
+      </c>
+      <c r="E72" s="3">
         <v>725700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>572700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>610200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>762200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>736600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>712400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>685000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>529100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>387400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>207700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-164300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-241900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-226400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-222500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-215600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-158200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>74300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>216100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>272000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>438200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>405000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>300300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>230300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5674,8 +5851,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5757,8 +5937,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,91 +6023,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2449500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2451300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2254100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2298600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2474500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2564000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2540400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2514600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2325800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2210800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1993500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1744600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1550700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1480200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1482600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1479400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1470200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1522400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1667800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1739900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1905000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1953600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2109900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2048600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1919900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1828700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6006,179 +6195,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44836</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44745</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44654</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44472</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44381</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44290</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42918</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42827</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E81" s="3">
         <v>172300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>183500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>197800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>161900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>224000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>256700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>328300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>205500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>196300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>222700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>188900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>176200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>125100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>135900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>206500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>109100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>143800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>120000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>101000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>87000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-105900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>103400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>175000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>85200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>66300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,91 +6406,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E83" s="3">
         <v>27800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>58900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>26500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>26700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>27700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>27200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>25300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6374,8 +6576,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6457,8 +6662,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,8 +6748,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6623,8 +6834,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6706,91 +6920,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E89" s="3">
         <v>183400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>271600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>115500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>331300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>522700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>206300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>260400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>342500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>222900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>43100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>216300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>199100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>163300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>186400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>240600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>131900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-81900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>147500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>309800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>230300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-61100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>37200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6820,91 +7040,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-45700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-62900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-59000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-27900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-34800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-27300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-23900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-22100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-38000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6986,8 +7210,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7069,91 +7296,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>99800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>28400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-82700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>63800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>87600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-277200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-119400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-63000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-110200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>110200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>22300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-289200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-261000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>204000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>300500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-44300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>462900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-74500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-428400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>113700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>126400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-372300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7183,37 +7416,38 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="E96" s="3">
         <v>-17100</v>
       </c>
       <c r="F96" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-17500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-17900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-16300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-16400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-16600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-16600</v>
       </c>
       <c r="M96" s="3">
         <v>-16600</v>
@@ -7222,52 +7456,55 @@
         <v>-16600</v>
       </c>
       <c r="O96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-16700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-15300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-31000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-15600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-16000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-16600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-17100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-17600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-13800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-13900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-12100</v>
       </c>
       <c r="AC96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7349,8 +7586,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7432,8 +7672,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7515,253 +7758,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-129500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-34200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-232100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-372200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-254600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-251200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-461400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-169200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-126700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-113900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-146400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-122700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-305200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-199800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-277400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-207900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-243700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-174400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-62500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-62200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-70500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-50000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>347700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC101" s="3" t="s">
+      <c r="AD101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-205600</v>
+      </c>
+      <c r="E102" s="3">
         <v>144000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>138700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-222600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-327600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>42700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>125000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>123300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-83000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>219700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>131900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-180400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>180000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>98800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-431600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-443000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>112700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>333600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-157500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>208000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-179700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>273600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>16900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>9900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,393 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44745</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44654</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44472</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44381</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44290</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42918</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42827</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>684400</v>
+      </c>
+      <c r="E8" s="3">
         <v>617500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>731800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>827100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>840800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>755400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>885000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>950500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1085700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>781600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>759000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>819500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>838700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>704400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>654700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>582000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1058300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>494100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>519600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>566800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>526900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>487500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>479400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>503400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>696900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>456900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>380000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>281900</v>
+      </c>
+      <c r="E9" s="3">
         <v>261100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>311400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>341700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>334400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>358000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>379500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>438700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>320000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>309200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>360600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>367200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>298800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>271400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>237000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>446700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>206500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>210000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>233200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>219600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>217600</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>208500</v>
       </c>
       <c r="Z9" s="3">
         <v>208500</v>
       </c>
       <c r="AA9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="AB9" s="3">
         <v>306300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>191900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>161000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>402500</v>
+      </c>
+      <c r="E10" s="3">
         <v>356400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>420400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>485400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>506400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>455000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>527000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>571000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>647000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>461600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>449800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>458900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>471500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>405600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>383300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>345000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>611600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>287600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>309600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>333600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>307300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>269900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>270900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>294900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>390600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>265000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>219000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,94 +1082,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E12" s="3">
         <v>105800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>108800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>111700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>112000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>108100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>110000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>107200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>110000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>94900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>94100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>85200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>86800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>77800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>158200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>76800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>74700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>77000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>75300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>74400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>72100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>77000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>82300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>76000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>70100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1242,94 +1258,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-14400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-27700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>37200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-4400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-5300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2500</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>5600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1337,85 +1359,88 @@
         <v>4800</v>
       </c>
       <c r="E15" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F15" s="3">
         <v>4700</v>
       </c>
       <c r="G15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H15" s="3">
         <v>4900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5400</v>
       </c>
       <c r="K15" s="3">
         <v>5400</v>
       </c>
       <c r="L15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M15" s="3">
         <v>5500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>20700</v>
-      </c>
-      <c r="T15" s="3">
-        <v>10600</v>
       </c>
       <c r="U15" s="3">
         <v>10600</v>
       </c>
       <c r="V15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="W15" s="3">
         <v>11100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>9800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>7700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>7400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>7000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>7900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1443,180 +1468,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>544500</v>
+      </c>
+      <c r="E17" s="3">
         <v>524700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>565200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>595600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>592800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>569500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>632000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>648300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>698000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>552700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>524900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>549800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>620700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>497600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>483000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>427100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>831200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>401000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>407300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>423300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>406500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>389900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>384800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>374200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>489100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>363100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>320800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E18" s="3">
         <v>92800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>166600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>231500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>248000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>185900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>253000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>302200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>387700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>228900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>234100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>269700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>218000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>206800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>171700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>154900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>227100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>93100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>112300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>143500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>120400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>97600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>94600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>129200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>207800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>93800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>59200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1647,180 +1679,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>29700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9400</v>
-      </c>
-      <c r="T20" s="3">
-        <v>12000</v>
       </c>
       <c r="U20" s="3">
         <v>12000</v>
       </c>
       <c r="V20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>8900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>9000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E21" s="3">
         <v>125700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>224000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>255300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>266300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>209100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>287600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>331800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>421100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>263700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>261300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>256000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>234500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>192300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>192200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>295300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>134700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>154700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>175900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>153400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>126800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>130000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>164900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>240000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>124400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>85700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1831,254 +1870,263 @@
         <v>1000</v>
       </c>
       <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>5600</v>
       </c>
       <c r="W22" s="3">
         <v>5600</v>
       </c>
       <c r="X22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="Y22" s="3">
         <v>5400</v>
       </c>
       <c r="Z22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AA22" s="3">
         <v>10700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E23" s="3">
         <v>97100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>195200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>226200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>238600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>180400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>255200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>297800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>384000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>224000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>222900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>263700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>217300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>197100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>148900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>151700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>225200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>94000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>111100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>140800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>120000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>95800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>98100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>127400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>206900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>92000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>58900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E24" s="3">
         <v>13600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>42700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>41000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-15200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>19000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>19700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>24000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>31900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-7500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2163,180 +2211,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E26" s="3">
         <v>83500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>172300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>183500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>197800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>161900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>224000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>256700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>328300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>205500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>196300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>222700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>188900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>176200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>125100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>135900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>206500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>109100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>92600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>120000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>101000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>88700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>78400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>103400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>175000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>85200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>66300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E27" s="3">
         <v>83500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>172300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>183500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>197800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>161900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>224000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>256700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>328300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>205500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>196300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>222700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>188900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>176200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>125100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>135900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>206500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>109100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>92600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>120000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>101000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>88700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>78400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>103400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>175000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>85200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>66300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2421,8 +2478,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2459,8 +2519,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2477,23 +2537,23 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>51200</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2507,8 +2567,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2593,8 +2656,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2679,180 +2745,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-29700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-12000</v>
       </c>
       <c r="U32" s="3">
         <v>-12000</v>
       </c>
       <c r="V32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E33" s="3">
         <v>83500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>172300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>183500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>197800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>161900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>224000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>256700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>328300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>205500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>196300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>222700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>188900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>176200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>125100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>135900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>206500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>109100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>143800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>120000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>101000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>87000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-105900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>103400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>175000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>85200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>66300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,185 +3012,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E35" s="3">
         <v>83500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>172300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>183500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>197800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>161900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>224000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>256700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>328300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>205500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>196300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>222700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>188900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>176200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>125100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>135900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>206500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>109100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>143800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>120000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>101000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>87000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-105900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>103400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>175000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>85200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>66300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44745</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44654</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44472</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44381</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44290</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42918</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42827</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3146,8 +3230,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,782 +3263,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>613200</v>
+      </c>
+      <c r="E41" s="3">
         <v>649200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>854800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>710700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>572000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>794600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1122200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1079500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>954400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>831100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>914100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>945200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>725400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>593500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>773900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>593900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>495100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>483700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>926800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>814000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>480400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>637900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>429800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>418700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>598300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>324700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>307900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E42" s="3">
         <v>92900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>65300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>209800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>282000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>244200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>233400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>282100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>478300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>522300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>287800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>229800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>211000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>137300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>342500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>400200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>421100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>190100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>418400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>712300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>860500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1348000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1217800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>809300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>895600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>871000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>493200</v>
+      </c>
+      <c r="E43" s="3">
         <v>455300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>491100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>530300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>683700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>546900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>550700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>597100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>868500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>581500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>497500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>587200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>694500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>487400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>362400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>357900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>372200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>333800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>291300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>352500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>454100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>414000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>272800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>268100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>405900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>315000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>192400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>347300</v>
+      </c>
+      <c r="E44" s="3">
         <v>352100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>325000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>310800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>295600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>259300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>243300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>224200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>226100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>262500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>222200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>191300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>206100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>183000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>196700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>178200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>164500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>161300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>153500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>154700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>135600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>131900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>107500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>125200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>153600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>203300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>136000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>574900</v>
+      </c>
+      <c r="E45" s="3">
         <v>562500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>547400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>510400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>509200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>491500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>415700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>387000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>368300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>347700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>259300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>232100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>238200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>227700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>188600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>182000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>184800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>194000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>170800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>139800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>111800</v>
-      </c>
-      <c r="X45" s="3">
-        <v>112200</v>
       </c>
       <c r="Y45" s="3">
         <v>112200</v>
       </c>
       <c r="Z45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="AA45" s="3">
         <v>110300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>112700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>115600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>116500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2123800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2112000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2257900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2127600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2270400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2374400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2576200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2521200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2699500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2501100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2415400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2243600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2094000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1702600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1658900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1654600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1616800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1594000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1732500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1879400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1894200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2156400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2270300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2140100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2080000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1854200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1623800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E47" s="3">
         <v>116900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>110800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>111000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>112000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>126100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>133900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>136700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>181600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>115600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>118000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>108300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>107000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>104500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>103600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>99000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>91900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>87700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>92000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>111400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>89300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>125900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>211900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>212500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>262100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>433800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E48" s="3">
         <v>507300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>492400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>476600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>477900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>467200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>456000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>452200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>457200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>454000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>449400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>440900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>409800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>391000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>377800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>365200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>352200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>334000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>279800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>278100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>285300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>281300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>268400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>259100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>258000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>253500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>253800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>456700</v>
+      </c>
+      <c r="E49" s="3">
         <v>459100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>456700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>431400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>460200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>489700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>501700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>515100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>529700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>530500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>554800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>538900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>529600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>524300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>541900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>467300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>493400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>498900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>507300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>533000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>536800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>360100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>331100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>335000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>332800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>324900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>323700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4038,8 +4151,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4124,94 +4240,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E52" s="3">
         <v>188100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>183500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>173300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>167800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>151700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>141600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>137100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>132900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>118600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>114800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>104800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>108900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>102000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>104000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>108200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>110000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>97800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>99200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>100100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>104000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>108100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>113800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>143200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>146900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>147600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>127300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4296,94 +4418,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3394900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3383400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3501300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3319900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3488400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3609200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3809400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3762200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4000900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3719700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3652300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3436500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3249200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2820400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2787000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2698800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2671500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2616600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2706600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2882500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2931700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2995200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3109500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3089300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3030200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2842300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2762500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,8 +4542,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4446,129 +4575,133 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>153200</v>
+      </c>
+      <c r="E57" s="3">
         <v>142400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>139700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>168000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>175600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>156500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>153100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>154900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>156100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>177500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>133700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>150400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>184200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>129600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>126600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>117900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>103400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>118800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>107900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>102700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>104000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>86400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>79400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>103500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>121400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>95400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E58" s="3">
         <v>35100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>50100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>32200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>213800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33300</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>24</v>
@@ -4585,8 +4718,8 @@
       <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4618,180 +4751,189 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>483800</v>
+      </c>
+      <c r="E59" s="3">
         <v>450600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>556400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>519400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>612100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>535200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>632800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>566500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>615500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>498300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>533900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>521400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>545600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>384300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>412400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>375800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>363600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>323200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>375600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>350500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>349600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>287400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>367900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>351900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>335800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>271600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>277300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>669800</v>
+      </c>
+      <c r="E60" s="3">
         <v>628100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>746300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>701900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>797400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>712200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>805100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>753600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>985400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>686800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>671800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>729700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>514000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>539000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>493700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>467000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>442000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>476300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>458400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>452300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>391300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>454300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>431400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>439200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>393100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>372700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4802,168 +4944,174 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>50200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>64800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>89200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>112800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>143600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>356900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>376800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>406200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>402300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>398500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>394700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>390900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>387200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>383600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>380000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>376400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>372900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>369400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>366000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>362600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>359200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>355900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>352700</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>290200</v>
+      </c>
+      <c r="E62" s="3">
         <v>305900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>303700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>313600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>327600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>347000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>351100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>355400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>357300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>350200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>363900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>365000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>372600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>357300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>373100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>331500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>337900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>320900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>328000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>379900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>366600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>329500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>335600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>185500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>183100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>173400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>208500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5048,8 +5196,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5134,8 +5285,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5220,94 +5374,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>960000</v>
+      </c>
+      <c r="E66" s="3">
         <v>933900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1050000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1065800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1189800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1134600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1245500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1221800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1486300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1393900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1441500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1443000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1504600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1269700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1306900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1216200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1192100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1146400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1184300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1214700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1191800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1090200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1155900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>979400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>981600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>922400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>933800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5338,8 +5498,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5424,8 +5585,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5510,8 +5674,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5596,8 +5763,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5682,94 +5852,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>661500</v>
+      </c>
+      <c r="E72" s="3">
         <v>694100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>725700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>572700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>610200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>762200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>736600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>712400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>685000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>529100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>387400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>207700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-164300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-241900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-226400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-222500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-215600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-158200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>74300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>216100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>272000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>438200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>405000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>300300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>230300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5854,8 +6030,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5940,8 +6119,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6026,94 +6208,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2434900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2449500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2451300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2254100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2298600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2474500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2564000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2540400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2514600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2325800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2210800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1993500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1744600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1550700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1480200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1482600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1479400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1470200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1522400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1667800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1739900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1905000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1953600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2109900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2048600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1919900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1828700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6198,185 +6386,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44745</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44654</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44472</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44381</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44290</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42918</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42827</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E81" s="3">
         <v>83500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>172300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>183500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>197800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>161900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>224000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>256700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>328300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>205500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>196300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>222700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>188900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>176200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>125100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>135900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>206500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>109100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>143800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>120000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>101000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>87000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-105900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>103400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>175000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>85200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>66300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6407,94 +6604,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E83" s="3">
         <v>27600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>58900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>27800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>25500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>26500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>26700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>27700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>27200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>25300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6579,8 +6780,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6665,8 +6869,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6751,8 +6958,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6837,8 +7047,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6923,94 +7136,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E89" s="3">
         <v>19300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>183400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>271600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>115500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>331300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>522700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>206300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>260400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>342500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>222900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>43100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>216300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>199100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>163300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>186400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>240600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>131900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-81900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>147500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>309800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>230300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-61100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>37200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7041,94 +7260,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-41400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-62900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-59000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-27900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-34800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-27300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-23900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-22100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-38000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7213,8 +7436,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7299,94 +7525,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-94900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>99800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>28400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-82700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>63800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>87600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-277200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-119400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-63000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-110200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>110200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>22300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-289200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-261000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>204000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>300500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-44300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>462900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-74500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-428400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>113700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>126400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-372300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7417,40 +7649,41 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-17200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-17100</v>
       </c>
       <c r="F96" s="3">
         <v>-17100</v>
       </c>
       <c r="G96" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-17500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-17900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-16300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-16400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-16600</v>
       </c>
       <c r="N96" s="3">
         <v>-16600</v>
@@ -7459,52 +7692,55 @@
         <v>-16600</v>
       </c>
       <c r="P96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-15000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-15300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-31000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-15600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-16000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-16600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-17100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-17600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-13900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-12100</v>
       </c>
       <c r="AD96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7589,8 +7825,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7675,8 +7914,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7761,262 +8003,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-129500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-34200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-232100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-372200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-254600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-251200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-461400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-169200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-126700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-26500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-113900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-146400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-122700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-305200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-199800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-277400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-207900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-243700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-174400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-62500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-62200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-70500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-50000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>347700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD101" s="3" t="s">
+      <c r="AE101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-205600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>144000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>138700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-222600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-327600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>42700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>125000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>123300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-83000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-31100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>219700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>131900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-180400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>180000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>98800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-431600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-443000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>112700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>333600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-157500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>208000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-179700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>273600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>16900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>9900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-83200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TER_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,393 +665,405 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44836</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44745</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44654</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44472</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44381</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44290</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42918</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42827</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>703700</v>
+      </c>
+      <c r="E8" s="3">
         <v>684400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>617500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>731800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>827100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>840800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>755400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>885000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>950500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1085700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>781600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>759000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>819500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>838700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>704400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>654700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>582000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1058300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>494100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>519600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>566800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>526900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>487500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>479400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>503400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>696900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>456900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>380000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>305400</v>
+      </c>
+      <c r="E9" s="3">
         <v>281900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>261100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>311400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>341700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>334400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>358000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>379500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>438700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>320000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>309200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>360600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>367200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>298800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>271400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>237000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>446700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>206500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>210000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>233200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>219600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>217600</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>208500</v>
       </c>
       <c r="AA9" s="3">
         <v>208500</v>
       </c>
       <c r="AB9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="AC9" s="3">
         <v>306300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>191900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>161000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>398300</v>
+      </c>
+      <c r="E10" s="3">
         <v>402500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>356400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>420400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>485400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>506400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>455000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>527000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>571000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>647000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>461600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>449800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>458900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>471500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>405600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>383300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>345000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>611600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>287600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>309600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>333600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>307300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>269900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>270900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>294900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>390600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>265000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>219000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,97 +1095,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>104400</v>
+      </c>
+      <c r="E12" s="3">
         <v>105700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>105800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>108800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>111700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>112000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>108100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>110000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>107200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>110000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>94900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>94100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>85200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>86800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>77800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>158200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>76800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>74700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>77000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>75300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>74400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>72100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>77000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>82300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>76000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>70100</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1261,186 +1277,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E14" s="3">
         <v>6400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-14400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-27700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>37200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-7600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-4400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-5300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>9000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>2500</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>5600</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E15" s="3">
         <v>4800</v>
       </c>
       <c r="F15" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G15" s="3">
         <v>4700</v>
       </c>
       <c r="H15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I15" s="3">
         <v>4900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5400</v>
       </c>
       <c r="L15" s="3">
         <v>5400</v>
       </c>
       <c r="M15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N15" s="3">
         <v>5500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>20700</v>
-      </c>
-      <c r="U15" s="3">
-        <v>10600</v>
       </c>
       <c r="V15" s="3">
         <v>10600</v>
       </c>
       <c r="W15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="X15" s="3">
         <v>11100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>9800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>7700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>7400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>7000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>7900</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1469,186 +1494,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>559800</v>
+      </c>
+      <c r="E17" s="3">
         <v>544500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>524700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>565200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>595600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>592800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>569500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>632000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>648300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>698000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>552700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>524900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>549800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>620700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>497600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>483000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>427100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>831200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>401000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>407300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>423300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>406500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>389900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>384800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>374200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>489100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>363100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>320800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>354000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>143900</v>
+      </c>
+      <c r="E18" s="3">
         <v>139900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>92800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>166600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>231500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>248000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>185900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>253000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>302200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>387700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>228900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>234100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>269700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>218000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>206800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>171700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>154900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>227100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>93100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>112300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>143500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>120400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>97600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>94600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>129200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>207800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>93800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>59200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1680,186 +1712,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>12000</v>
       </c>
       <c r="V20" s="3">
         <v>12000</v>
       </c>
       <c r="W20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="X20" s="3">
         <v>2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>8900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>9000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>173400</v>
+      </c>
+      <c r="E21" s="3">
         <v>172700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>125700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>224000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>255300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>266300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>209100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>287600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>331800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>421100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>263700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>261300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>256000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>234500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>192300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>192200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>295300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>134700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>154700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>175900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>153400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>126800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>130000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>164900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>240000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>124400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>85700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>85600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1873,260 +1912,269 @@
         <v>1000</v>
       </c>
       <c r="G22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>5600</v>
       </c>
       <c r="X22" s="3">
         <v>5600</v>
       </c>
       <c r="Y22" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="Z22" s="3">
         <v>5400</v>
       </c>
       <c r="AA22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AB22" s="3">
         <v>10700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>5200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1500</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>144300</v>
+      </c>
+      <c r="E23" s="3">
         <v>144400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>97100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>195200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>226200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>238600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>180400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>255200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>297800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>384000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>224000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>222900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>263700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>217300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>197100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>148900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>151700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>225200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>94000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>111100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>140800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>120000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>95800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>98100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>127400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>206900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>92000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>58900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E24" s="3">
         <v>24400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>42700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-15200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>19700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>24000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>31900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-7500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2214,186 +2262,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E26" s="3">
         <v>120100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>83500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>172300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>183500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>197800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>161900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>224000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>256700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>328300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>205500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>196300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>222700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>188900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>176200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>125100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>135900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>206500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>109100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>92600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>120000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>101000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>88700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>78400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>103400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>175000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>85200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>66300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E27" s="3">
         <v>120100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>83500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>172300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>183500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>197800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>161900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>224000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>256700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>328300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>205500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>196300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>222700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>188900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>176200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>125100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>135900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>206500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>109100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>92600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>120000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>101000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>88700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>78400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>103400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>175000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>85200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>66300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2481,8 +2538,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2522,8 +2582,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2540,23 +2600,23 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>51200</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-184300</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2570,8 +2630,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2659,8 +2722,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2748,186 +2814,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-12000</v>
       </c>
       <c r="V32" s="3">
         <v>-12000</v>
       </c>
       <c r="W32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="X32" s="3">
         <v>-2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E33" s="3">
         <v>120100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>83500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>172300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>183500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>197800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>161900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>224000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>256700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>328300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>205500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>196300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>222700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>188900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>176200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>125100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>135900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>206500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>109100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>143800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>120000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>101000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>87000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-105900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>103400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>175000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>85200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>66300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3015,191 +3090,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E35" s="3">
         <v>120100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>83500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>172300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>183500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>197800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>161900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>224000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>256700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>328300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>205500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>196300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>222700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>188900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>176200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>125100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>135900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>206500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>109100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>143800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>120000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>101000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>87000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-105900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>103400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>175000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>85200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>66300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45109</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44836</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44745</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44654</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44472</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44381</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44290</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42918</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42827</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3231,8 +3315,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3264,809 +3349,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E41" s="3">
         <v>613200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>649200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>854800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>710700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>572000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>794600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1122200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1079500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>954400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>831100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>914100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>945200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>725400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>593500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>773900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>593900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>495100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>483700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>926800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>814000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>480400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>637900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>429800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>418700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>598300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>324700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>307900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>297900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E42" s="3">
         <v>95200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>92900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>39600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>65300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>209800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>282000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>244200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>233400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>282100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>478300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>522300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>287800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>229800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>211000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>137300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>342500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>400200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>421100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>190100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>418400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>712300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>860500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1348000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1217800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>809300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>895600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>871000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>455900</v>
+      </c>
+      <c r="E43" s="3">
         <v>493200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>455300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>491100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>530300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>683700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>546900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>550700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>597100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>868500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>581500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>497500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>587200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>694500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>487400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>362400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>357900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>372200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>333800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>291300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>352500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>454100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>414000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>272800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>268100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>405900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>315000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>192400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>322600</v>
+      </c>
+      <c r="E44" s="3">
         <v>347300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>352100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>325000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>310800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>295600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>259300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>243300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>224200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>226100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>262500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>222200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>191300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>206100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>183000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>196700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>178200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>164500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>161300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>153500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>154700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>135600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>131900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>107500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>125200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>153600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>203300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>136000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>115100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>604300</v>
+      </c>
+      <c r="E45" s="3">
         <v>574900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>562500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>547400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>510400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>509200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>491500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>415700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>387000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>368300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>347700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>259300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>232100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>238200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>227700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>188600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>182000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>184800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>194000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>170800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>139800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>111800</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>112200</v>
       </c>
       <c r="Z45" s="3">
         <v>112200</v>
       </c>
       <c r="AA45" s="3">
+        <v>112200</v>
+      </c>
+      <c r="AB45" s="3">
         <v>110300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>112700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>115600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>116500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>110500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2099400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2123800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2112000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2257900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2127600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2270400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2374400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2576200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2521200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2699500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2501100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2415400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2243600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2094000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1702600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1658900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1654600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1616800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1594000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1732500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1879400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1894200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2156400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2270300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2140100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2080000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1854200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1623800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1285200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E47" s="3">
         <v>104700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>116900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>110800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>111000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>112000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>126100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>133900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>136700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>181600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>115600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>118000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>108300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>107000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>104500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>103600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>99000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>91900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>87700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>92000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>111400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>89300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>125900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>211900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>212500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>262100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>433800</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>357800</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>515400</v>
+      </c>
+      <c r="E48" s="3">
         <v>513000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>507300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>492400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>476600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>477900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>467200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>456000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>452200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>457200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>454000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>449400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>440900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>409800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>391000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>377800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>365200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>352200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>334000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>279800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>278100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>285300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>281300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>268400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>259100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>258000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>253500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>253800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>440300</v>
+      </c>
+      <c r="E49" s="3">
         <v>456700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>459100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>456700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>431400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>460200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>489700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>501700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>515100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>529700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>530500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>554800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>538900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>529600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>524300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>541900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>467300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>493400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>498900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>507300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>533000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>536800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>360100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>331100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>335000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>332800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>324900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>323700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4267,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4243,97 +4359,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>211700</v>
+      </c>
+      <c r="E52" s="3">
         <v>196700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>188100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>183500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>173300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>167800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>151700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>141600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>137100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>132900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>118600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>114800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>104800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>108900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>102000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>104000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>108200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>110000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>97800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>99200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>100100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>104000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>108100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>113800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>143200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>146900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>147600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>127300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,97 +4543,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3370700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3394900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3383400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3501300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3319900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3488400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3609200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3809400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3762200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4000900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3719700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3652300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3436500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3249200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2820400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2787000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2698800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2671500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2616600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2706600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2882500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2931700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2995200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3109500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3089300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3030200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2842300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2762500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>2365700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4543,8 +4671,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4576,135 +4705,139 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>176100</v>
+      </c>
+      <c r="E57" s="3">
         <v>153200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>142400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>139700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>168000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>175600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>156500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>153100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>154900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>156100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>177500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>133700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>150400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>184200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>129600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>126600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>117900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>103400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>118800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>107900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>102700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>104000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>86400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>79400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>103500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>121400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>95400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E58" s="3">
         <v>32800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>35100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>50100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>213800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33300</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>24</v>
@@ -4721,8 +4854,8 @@
       <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4754,186 +4887,195 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>441000</v>
+      </c>
+      <c r="E59" s="3">
         <v>483800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>450600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>556400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>519400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>612100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>535200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>632800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>566500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>615500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>498300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>533900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>521400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>545600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>384300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>412400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>375800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>363600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>323200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>375600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>350500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>349600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>287400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>367900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>351900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>335800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>271600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>277300</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>307200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>640700</v>
+      </c>
+      <c r="E60" s="3">
         <v>669800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>628100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>746300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>701900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>797400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>712200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>805100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>753600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>985400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>686800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>671800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>729700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>514000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>539000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>493700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>467000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>442000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>476300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>458400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>452300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>391300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>454300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>431400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>439200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>393100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>372700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4947,171 +5089,177 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>50200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>64800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>75400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>89200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>112800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>143600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>356900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>376800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>406200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>402300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>398500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>394700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>390900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>387200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>383600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>380000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>376400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>372900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>369400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>366000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>362600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>359200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>355900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>352700</v>
       </c>
-      <c r="AE61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>288700</v>
+      </c>
+      <c r="E62" s="3">
         <v>290200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>305900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>303700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>313600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>327600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>347000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>351100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>355400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>357300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>350200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>363900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>365000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>372600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>357300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>373100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>331500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>337900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>320900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>328000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>379900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>366600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>329500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>335600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>185500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>183100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>173400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>208500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5199,8 +5347,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5288,8 +5439,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5377,97 +5531,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>929400</v>
+      </c>
+      <c r="E66" s="3">
         <v>960000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>933900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1050000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1065800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1189800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1134600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1245500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1221800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1486300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1393900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1441500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1443000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1504600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1269700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1306900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1216200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1192100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1146400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1184300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1214700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1191800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1090200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1155900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>979400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>981600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>922400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>933800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>583500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,8 +5659,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5588,8 +5749,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5677,8 +5841,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5766,8 +5933,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5855,97 +6025,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>653900</v>
+      </c>
+      <c r="E72" s="3">
         <v>661500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>694100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>725700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>572700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>610200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>762200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>736600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>712400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>685000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>529100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>387400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>207700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-164300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-241900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-226400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-222500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-215600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-158200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-23200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>74300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>216100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>272000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>438200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>405000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>300300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>230300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6033,8 +6209,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6122,8 +6301,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6211,97 +6393,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2441300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2434900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2449500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2451300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2254100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2298600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2474500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2564000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2540400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2514600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2325800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2210800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1993500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1744600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1550700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1480200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1482600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1479400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1470200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1522400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1667800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1739900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1905000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1953600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2109900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2048600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1919900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1828700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1782100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6389,191 +6577,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45109</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44836</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44745</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44654</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44472</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44381</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44290</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42918</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42827</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E81" s="3">
         <v>120100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>83500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>172300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>183500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>197800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>161900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>224000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>256700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>328300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>205500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>196300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>222700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>188900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>176200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>125100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>135900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>206500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>109100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>143800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>120000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>101000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>87000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-105900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>103400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>175000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>85200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>66300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,97 +6802,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E83" s="3">
         <v>27200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>28400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>26800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>58900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>30400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>27800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>25500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>26500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>26700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>27700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>27200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>25300</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>25400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6783,8 +6984,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,8 +7076,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6961,8 +7168,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7050,8 +7260,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7139,97 +7352,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>174300</v>
+      </c>
+      <c r="E89" s="3">
         <v>142800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>183400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>271600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>115500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>331300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>522700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>206300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>260400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>342500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>222900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>43100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>216300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>199100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>163300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>186400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>240600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>131900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-81900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>147500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>309800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>230300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-61100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>37200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>201400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7261,97 +7480,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-41400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-62900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-37100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-59000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-27900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-34800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-27300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-23900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-22100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-38000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7662,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7528,97 +7754,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-94900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>99800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>28400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-82700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>63800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>87600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-277200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-119400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-110200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>110200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>22300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-289200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-261000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>204000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>300500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-44300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>462900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-74500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-428400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>113700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>126400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-372300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-252100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7650,43 +7882,44 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-17000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-17200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-17100</v>
       </c>
       <c r="G96" s="3">
         <v>-17100</v>
       </c>
       <c r="H96" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-17500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-17900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-16300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-16600</v>
       </c>
       <c r="O96" s="3">
         <v>-16600</v>
@@ -7695,52 +7928,55 @@
         <v>-16600</v>
       </c>
       <c r="Q96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="R96" s="3">
         <v>-16700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-15000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-15300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-31000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-15600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-16000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-16600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-17100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-17600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-13800</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-13900</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="AD96" s="3">
-        <v>-12100</v>
       </c>
       <c r="AE96" s="3">
         <v>-12100</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-12100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7828,8 +8064,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7917,8 +8156,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8006,271 +8248,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-153700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-129500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-34200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-232100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-372200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-254600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-251200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-461400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-169200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-126700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-113900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-146400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-122700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-305200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-199800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-277400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-207900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-243700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-174400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-62500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-62200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-70500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-50000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>347700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE101" s="3" t="s">
+      <c r="AF101" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-205600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>144000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>138700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-222600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-327600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>42700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>125000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>123300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-83000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-31100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>219700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>131900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-180400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>180000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>98800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-431600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-443000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>112700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>333600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-157500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>208000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>11200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-179700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>273600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>16900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>9900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-83200</v>
       </c>
     </row>
